--- a/scope.XLSX
+++ b/scope.XLSX
@@ -1247,9 +1247,9 @@
   <dimension ref="A1:O204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="J194" sqref="J194"/>
+      <selection pane="bottomLeft" activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/scope.XLSX
+++ b/scope.XLSX
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$1:$204</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$1:$205</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="205">
   <si>
     <t>ROOM</t>
   </si>
@@ -214,9 +214,6 @@
     <t>MP 203</t>
   </si>
   <si>
-    <t>MS 2158 (and Lobby)</t>
-  </si>
-  <si>
     <t>MS 2290</t>
   </si>
   <si>
@@ -635,6 +632,12 @@
   </si>
   <si>
     <t>fall/winter 2019</t>
+  </si>
+  <si>
+    <t>spring/summer 2018</t>
+  </si>
+  <si>
+    <t>MS 2158</t>
   </si>
 </sst>
 </file>
@@ -1244,21 +1247,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O204"/>
+  <dimension ref="A1:O205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C209" sqref="C209"/>
+      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
     <col min="3" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="23" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1267,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="43" t="s">
-        <v>179</v>
-      </c>
       <c r="G1" s="45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H1" s="24"/>
     </row>
@@ -1303,7 +1306,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>2</v>
@@ -1324,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>2</v>
@@ -1368,7 +1371,7 @@
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>4</v>
@@ -1460,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>4</v>
@@ -1482,7 +1485,7 @@
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>4</v>
@@ -1594,7 +1597,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>2</v>
@@ -1684,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>2</v>
@@ -1751,7 +1754,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>2</v>
@@ -1820,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>2</v>
@@ -1843,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>2</v>
@@ -1865,7 +1868,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>2</v>
@@ -2007,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2039,7 +2042,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2071,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2103,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2135,7 +2138,7 @@
         <v>2</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2155,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>2</v>
@@ -2179,7 +2182,7 @@
         <v>4</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>2</v>
@@ -2195,7 +2198,7 @@
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>2</v>
@@ -2211,7 +2214,7 @@
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>2</v>
@@ -2226,7 +2229,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>2</v>
@@ -2242,7 +2245,7 @@
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>2</v>
@@ -2258,7 +2261,7 @@
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>2</v>
@@ -2273,7 +2276,7 @@
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>2</v>
@@ -2327,7 +2330,7 @@
     </row>
     <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="6"/>
@@ -2363,7 +2366,7 @@
     </row>
     <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="6"/>
@@ -2424,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2456,7 +2459,7 @@
         <v>2</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2488,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2522,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2556,12 +2559,12 @@
         <v>2</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
@@ -2586,7 +2589,7 @@
         <v>4</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G68" s="12"/>
     </row>
@@ -2650,7 +2653,7 @@
     </row>
     <row r="72" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B72" s="29"/>
       <c r="C72" s="6"/>
@@ -2685,7 +2688,7 @@
     </row>
     <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
@@ -2740,59 +2743,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>4</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B77"/>
+      <c r="C77"/>
       <c r="D77" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>2</v>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77" s="23" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="6"/>
+      <c r="C78" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D78" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F78" s="11" t="s">
-        <v>2</v>
+      <c r="F78" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>2</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
+      <c r="D79" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E79" s="8" t="s">
         <v>4</v>
       </c>
@@ -2805,7 +2808,7 @@
     </row>
     <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>4</v>
@@ -2824,7 +2827,7 @@
     </row>
     <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>4</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>4</v>
@@ -2862,22 +2865,18 @@
     </row>
     <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
       <c r="E83" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="8" t="s">
-        <v>174</v>
+      <c r="F83" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>2</v>
@@ -2885,46 +2884,51 @@
     </row>
     <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="6"/>
+      <c r="C84" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D84" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F84" s="11" t="s">
-        <v>2</v>
+      <c r="F84" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="G84" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B85" s="29"/>
+      <c r="A85" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C85" s="6"/>
-      <c r="D85" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="23">
-        <v>2017</v>
+      <c r="D85" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B86" s="29"/>
       <c r="C86" s="6"/>
@@ -2941,37 +2945,36 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>2</v>
+      <c r="A87" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" s="29"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="23">
+        <v>2017</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
+      <c r="C88" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E88" s="8" t="s">
         <v>4</v>
       </c>
@@ -2984,15 +2987,13 @@
     </row>
     <row r="89" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C89" s="6"/>
-      <c r="D89" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="D89" s="6"/>
       <c r="E89" s="8" t="s">
         <v>4</v>
       </c>
@@ -3005,15 +3006,15 @@
     </row>
     <row r="90" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E90" s="8" t="s">
         <v>4</v>
       </c>
@@ -3026,130 +3027,133 @@
     </row>
     <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
+      <c r="C91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="G91" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="D92" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
       <c r="G92" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B93" s="29"/>
+        <v>74</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C93" s="6"/>
-      <c r="D93"/>
+      <c r="D93" s="6"/>
       <c r="E93" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="23">
+      <c r="F93" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" s="29"/>
+      <c r="C94" s="6"/>
+      <c r="D94"/>
+      <c r="E94" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="23">
         <v>2017</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95"/>
-      <c r="E95" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="23">
-        <v>2017</v>
+        <v>75</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>2</v>
+        <v>190</v>
+      </c>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96"/>
+      <c r="E96" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="23">
+        <v>2017</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E97" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="23">
-        <v>2017</v>
+      <c r="A97" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3172,7 +3176,7 @@
     </row>
     <row r="99" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="20" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
@@ -3185,31 +3189,30 @@
       <c r="F99" s="29"/>
       <c r="G99" s="29"/>
       <c r="H99" s="23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="23">
         <v>2016</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>4</v>
@@ -3228,7 +3231,7 @@
     </row>
     <row r="102" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>4</v>
@@ -3245,9 +3248,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>4</v>
@@ -3263,11 +3266,10 @@
       <c r="G103" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H103" s="23"/>
     </row>
     <row r="104" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>4</v>
@@ -3285,9 +3287,9 @@
       </c>
       <c r="H104" s="23"/>
     </row>
-    <row r="105" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>4</v>
@@ -3303,10 +3305,11 @@
       <c r="G105" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="H105" s="23"/>
     </row>
     <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>4</v>
@@ -3324,26 +3327,27 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B107" s="29"/>
+      <c r="A107" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C107" s="6"/>
-      <c r="D107" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E107" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="23">
-        <v>2017</v>
+      <c r="D107" s="6"/>
+      <c r="E107" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B108" s="29"/>
       <c r="C108" s="6"/>
@@ -3361,7 +3365,7 @@
     </row>
     <row r="109" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B109" s="29"/>
       <c r="C109" s="6"/>
@@ -3379,7 +3383,7 @@
     </row>
     <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B110" s="29"/>
       <c r="C110" s="6"/>
@@ -3395,29 +3399,27 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>4</v>
-      </c>
+    <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B111" s="29"/>
       <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H111" s="23"/>
+      <c r="D111" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="23">
+        <v>2017</v>
+      </c>
     </row>
     <row r="112" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>4</v>
@@ -3435,9 +3437,9 @@
       </c>
       <c r="H112" s="23"/>
     </row>
-    <row r="113" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>4</v>
@@ -3453,10 +3455,11 @@
       <c r="G113" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="H113" s="23"/>
     </row>
     <row r="114" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>4</v>
@@ -3475,14 +3478,12 @@
     </row>
     <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="8" t="s">
         <v>4</v>
@@ -3496,7 +3497,7 @@
     </row>
     <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>4</v>
@@ -3515,9 +3516,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>4</v>
@@ -3525,9 +3526,7 @@
       <c r="C117" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D117" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="D117" s="6"/>
       <c r="E117" s="8" t="s">
         <v>4</v>
       </c>
@@ -3537,11 +3536,10 @@
       <c r="G117" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H117" s="23"/>
     </row>
     <row r="118" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>4</v>
@@ -3549,12 +3547,14 @@
       <c r="C118" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D118" s="10"/>
+      <c r="D118" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E118" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F118" s="8" t="s">
-        <v>174</v>
+      <c r="F118" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>2</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="119" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>4</v>
@@ -3571,14 +3571,12 @@
       <c r="C119" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D119" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="D119" s="10"/>
       <c r="E119" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F119" s="11" t="s">
-        <v>2</v>
+      <c r="F119" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>2</v>
@@ -3587,13 +3585,17 @@
     </row>
     <row r="120" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
+      <c r="C120" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E120" s="8" t="s">
         <v>4</v>
       </c>
@@ -3603,19 +3605,17 @@
       <c r="G120" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H120" s="25"/>
-    </row>
-    <row r="121" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H120" s="23"/>
+    </row>
+    <row r="121" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="6"/>
-      <c r="D121" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="D121" s="6"/>
       <c r="E121" s="8" t="s">
         <v>4</v>
       </c>
@@ -3625,11 +3625,11 @@
       <c r="G121" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H121" s="23"/>
-    </row>
-    <row r="122" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H121" s="25"/>
+    </row>
+    <row r="122" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>4</v>
@@ -3647,28 +3647,32 @@
       <c r="G122" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H122" s="23"/>
+    </row>
+    <row r="123" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B123" s="29"/>
-      <c r="C123" s="29"/>
-      <c r="D123" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E123" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F123" s="29"/>
-      <c r="G123" s="29"/>
-      <c r="H123" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B124" s="29"/>
       <c r="C124" s="29"/>
@@ -3686,7 +3690,7 @@
     </row>
     <row r="125" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B125" s="29"/>
       <c r="C125" s="29"/>
@@ -3704,71 +3708,66 @@
     </row>
     <row r="126" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B126" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F126" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G126" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
+        <v>97</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="D127" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="23">
+      <c r="F127" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G127" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="23">
         <v>2017</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G128" s="11" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>4</v>
@@ -3779,104 +3778,103 @@
       <c r="D129" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
+      <c r="E129" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="G129" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B130" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G130" s="18" t="s">
+      <c r="A130" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B131" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C131" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>4</v>
-      </c>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
       <c r="E131" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F131" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G131" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G132" s="11" t="s">
+      <c r="A132" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F132" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G132" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B133" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B133" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D133" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E133" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F133" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G133" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H133" s="27"/>
+      <c r="D133" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="134" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B134" s="22" t="s">
         <v>4</v>
@@ -3896,33 +3894,34 @@
       <c r="G134" s="38" t="s">
         <v>2</v>
       </c>
+      <c r="H134" s="27"/>
     </row>
     <row r="135" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B135" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B135" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D135" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G135" s="11" t="s">
+      <c r="D135" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G135" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>4</v>
@@ -3945,13 +3944,17 @@
     </row>
     <row r="137" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
+      <c r="C137" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E137" s="8" t="s">
         <v>4</v>
       </c>
@@ -3963,29 +3966,27 @@
       </c>
     </row>
     <row r="138" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D138" s="9"/>
-      <c r="E138" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F138" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G138" s="18" t="s">
+      <c r="A138" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G138" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B139" s="17" t="s">
         <v>4</v>
@@ -3993,42 +3994,44 @@
       <c r="C139" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D139" s="13"/>
+      <c r="D139" s="9"/>
       <c r="E139" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F139" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G139" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H139" s="27"/>
     </row>
     <row r="140" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="A140" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" s="13"/>
+      <c r="E140" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F140" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G140" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H140" s="27"/>
     </row>
     <row r="141" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B141" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B141" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C141" s="8" t="s">
@@ -4038,16 +4041,16 @@
         <v>4</v>
       </c>
       <c r="E141" s="6"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="38" t="s">
+      <c r="F141" s="6"/>
+      <c r="G141" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B142" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B142" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C142" s="8" t="s">
@@ -4057,84 +4060,82 @@
         <v>4</v>
       </c>
       <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="11" t="s">
+      <c r="F142" s="28"/>
+      <c r="G142" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B143" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C143" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D143" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E143" s="28"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B144" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F144" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G144" s="18" t="s">
+      <c r="A144" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" s="28"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B145" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" s="32"/>
-      <c r="D145" s="41"/>
-      <c r="E145" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F145" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="G145" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F145" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G145" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B146" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C146" s="32"/>
-      <c r="D146" s="36" t="s">
-        <v>4</v>
-      </c>
+      <c r="D146" s="41"/>
       <c r="E146" s="36" t="s">
         <v>4</v>
       </c>
       <c r="F146" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G146" s="39" t="s">
         <v>2</v>
@@ -4142,56 +4143,64 @@
     </row>
     <row r="147" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B147" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="13"/>
-      <c r="D147" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E147" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F147" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G147" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B147" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="32"/>
+      <c r="D147" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G147" s="39" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B148" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C148" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D148" s="13"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="17" t="s">
+        <v>4</v>
+      </c>
       <c r="E148" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F148" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G148" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B149" s="10"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="11" t="s">
+      <c r="A149" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" s="13"/>
+      <c r="E149" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F149" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G149" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4199,49 +4208,41 @@
       <c r="A150" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B150" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C150" s="6"/>
-      <c r="D150" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
       <c r="G150" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F151" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="D151" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
       <c r="G151" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C152" s="6"/>
-      <c r="D152" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="D152" s="6"/>
       <c r="E152" s="8" t="s">
         <v>4</v>
       </c>
@@ -4254,7 +4255,7 @@
     </row>
     <row r="153" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>4</v>
@@ -4275,35 +4276,35 @@
     </row>
     <row r="154" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B154" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D154" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E154" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F154" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G154" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G154" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B155" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C155" s="6"/>
+      <c r="C155" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D155" s="35" t="s">
         <v>4</v>
       </c>
@@ -4319,7 +4320,7 @@
     </row>
     <row r="156" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B156" s="22" t="s">
         <v>4</v>
@@ -4340,14 +4341,12 @@
     </row>
     <row r="157" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B157" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C157" s="6"/>
       <c r="D157" s="35" t="s">
         <v>4</v>
       </c>
@@ -4363,30 +4362,30 @@
     </row>
     <row r="158" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B158" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B158" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F158" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G158" s="11" t="s">
+      <c r="D158" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F158" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G158" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>4</v>
@@ -4409,7 +4408,7 @@
     </row>
     <row r="160" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>4</v>
@@ -4432,7 +4431,7 @@
     </row>
     <row r="161" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>4</v>
@@ -4455,133 +4454,133 @@
     </row>
     <row r="162" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B162" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E162" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F162" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G162" s="38" t="s">
+      <c r="E162" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G162" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B163" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" s="10"/>
-      <c r="D163" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E163" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F163" s="10"/>
-      <c r="G163"/>
-      <c r="H163" s="23">
-        <v>2017</v>
+        <v>132</v>
+      </c>
+      <c r="B163" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G163" s="38" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B164" s="10"/>
+        <v>133</v>
+      </c>
+      <c r="B164" s="21" t="s">
+        <v>4</v>
+      </c>
       <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="31"/>
+      <c r="D164" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="F164" s="10"/>
-      <c r="G164" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H164" s="23" t="s">
-        <v>201</v>
+      <c r="G164"/>
+      <c r="H164" s="23">
+        <v>2017</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E165" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F165" s="11" t="s">
-        <v>2</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="31"/>
+      <c r="F165" s="10"/>
       <c r="G165" s="11" t="s">
         <v>2</v>
+      </c>
+      <c r="H165" s="23" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C166" s="6"/>
+      <c r="C166" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D166" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E166" s="35" t="s">
+      <c r="E166" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F166" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G166" s="38" t="s">
+      <c r="G166" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C167" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C167" s="6"/>
       <c r="D167" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E167" s="22" t="s">
+      <c r="E167" s="35" t="s">
         <v>4</v>
       </c>
       <c r="F167" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G167" s="11" t="s">
+      <c r="G167" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>4</v>
@@ -4592,19 +4591,19 @@
       <c r="D168" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E168" s="35" t="s">
+      <c r="E168" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F168" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G168" s="38" t="s">
+      <c r="G168" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>4</v>
@@ -4615,19 +4614,19 @@
       <c r="D169" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E169" s="22" t="s">
+      <c r="E169" s="35" t="s">
         <v>4</v>
       </c>
       <c r="F169" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G169" s="11" t="s">
+      <c r="G169" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>4</v>
@@ -4638,19 +4637,19 @@
       <c r="D170" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E170" s="35" t="s">
+      <c r="E170" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F170" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G170" s="38" t="s">
+      <c r="G170" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>4</v>
@@ -4661,19 +4660,19 @@
       <c r="D171" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E171" s="22" t="s">
+      <c r="E171" s="35" t="s">
         <v>4</v>
       </c>
       <c r="F171" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G171" s="11" t="s">
+      <c r="G171" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>4</v>
@@ -4684,20 +4683,19 @@
       <c r="D172" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E172" s="35" t="s">
+      <c r="E172" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F172" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G172" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H172" s="25"/>
+      <c r="G172" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="173" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>4</v>
@@ -4705,20 +4703,23 @@
       <c r="C173" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D173" s="6"/>
-      <c r="E173" s="22" t="s">
+      <c r="D173" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" s="35" t="s">
         <v>4</v>
       </c>
       <c r="F173" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G173" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="G173" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H173" s="25"/>
     </row>
     <row r="174" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>4</v>
@@ -4726,20 +4727,20 @@
       <c r="C174" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D174" s="34"/>
-      <c r="E174" s="8" t="s">
+      <c r="D174" s="6"/>
+      <c r="E174" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F174" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G174" s="38" t="s">
+      <c r="G174" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>4</v>
@@ -4747,18 +4748,20 @@
       <c r="C175" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6"/>
+      <c r="D175" s="34"/>
+      <c r="E175" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F175" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="G175" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>4</v>
@@ -4766,20 +4769,18 @@
       <c r="C176" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D176" s="6"/>
-      <c r="E176" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F176" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G176" s="11" t="s">
+      <c r="D176" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>4</v>
@@ -4787,20 +4788,20 @@
       <c r="C177" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D177" s="34"/>
-      <c r="E177" s="35" t="s">
+      <c r="D177" s="6"/>
+      <c r="E177" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F177" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G177" s="38" t="s">
+      <c r="G177" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>4</v>
@@ -4808,20 +4809,20 @@
       <c r="C178" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D178" s="28"/>
-      <c r="E178" s="22" t="s">
+      <c r="D178" s="34"/>
+      <c r="E178" s="35" t="s">
         <v>4</v>
       </c>
       <c r="F178" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G178" s="11" t="s">
+      <c r="G178" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>4</v>
@@ -4829,20 +4830,20 @@
       <c r="C179" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="6"/>
-      <c r="E179" s="35" t="s">
+      <c r="D179" s="28"/>
+      <c r="E179" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F179" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G179" s="38" t="s">
+      <c r="G179" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>4</v>
@@ -4851,19 +4852,19 @@
         <v>4</v>
       </c>
       <c r="D180" s="6"/>
-      <c r="E180" s="22" t="s">
+      <c r="E180" s="35" t="s">
         <v>4</v>
       </c>
       <c r="F180" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G180" s="11" t="s">
+      <c r="G180" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>4</v>
@@ -4872,19 +4873,19 @@
         <v>4</v>
       </c>
       <c r="D181" s="6"/>
-      <c r="E181" s="35" t="s">
+      <c r="E181" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F181" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G181" s="38" t="s">
+      <c r="G181" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>4</v>
@@ -4893,19 +4894,19 @@
         <v>4</v>
       </c>
       <c r="D182" s="6"/>
-      <c r="E182" s="22" t="s">
+      <c r="E182" s="35" t="s">
         <v>4</v>
       </c>
       <c r="F182" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G182" s="11" t="s">
+      <c r="G182" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>4</v>
@@ -4913,22 +4914,20 @@
       <c r="C183" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D183" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E183" s="35" t="s">
+      <c r="D183" s="6"/>
+      <c r="E183" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F183" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G183" s="38" t="s">
+      <c r="G183" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>4</v>
@@ -4936,49 +4935,50 @@
       <c r="C184" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D184" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E184" s="22" t="s">
+      <c r="D184" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E184" s="35" t="s">
         <v>4</v>
       </c>
       <c r="F184" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G184" s="11" t="s">
+      <c r="G184" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B185" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="8" t="s">
+      <c r="C185" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E185" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F185" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G185" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H185" s="25"/>
+      <c r="G185" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="186" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C186" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="E186" s="8" t="s">
         <v>4</v>
@@ -4986,13 +4986,14 @@
       <c r="F186" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G186" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="G186" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H186" s="25"/>
     </row>
     <row r="187" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>4</v>
@@ -5013,7 +5014,7 @@
     </row>
     <row r="188" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>4</v>
@@ -5021,9 +5022,7 @@
       <c r="C188" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D188" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="D188" s="6"/>
       <c r="E188" s="8" t="s">
         <v>4</v>
       </c>
@@ -5036,7 +5035,7 @@
     </row>
     <row r="189" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>4</v>
@@ -5047,15 +5046,19 @@
       <c r="D189" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
+      <c r="E189" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F189" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="G189" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>4</v>
@@ -5074,26 +5077,26 @@
     </row>
     <row r="191" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F191" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="C191" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
       <c r="G191" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>4</v>
@@ -5112,7 +5115,7 @@
     </row>
     <row r="193" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>4</v>
@@ -5131,14 +5134,12 @@
     </row>
     <row r="194" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C194" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="E194" s="8" t="s">
         <v>4</v>
@@ -5150,119 +5151,120 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B195"/>
-      <c r="C195" s="6"/>
-      <c r="D195" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E195"/>
-      <c r="F195"/>
-      <c r="G195"/>
-      <c r="H195" s="23">
+        <v>163</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195" s="6"/>
+      <c r="E195" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F195" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G195" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B196"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E196"/>
+      <c r="F196"/>
+      <c r="G196"/>
+      <c r="H196" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C196" s="6"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F196" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G196" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H196" s="23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B197"/>
-      <c r="C197"/>
-      <c r="D197" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E197"/>
-      <c r="F197" s="6"/>
-      <c r="G197"/>
-      <c r="H197" s="23">
+        <v>166</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" s="6"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F197" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G197" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H197" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B198"/>
+      <c r="C198"/>
+      <c r="D198" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E198"/>
+      <c r="F198" s="6"/>
+      <c r="G198"/>
+      <c r="H198" s="23">
         <v>2017</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D198" s="10"/>
-      <c r="E198" s="6"/>
-      <c r="F198" s="6"/>
-      <c r="G198" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H198" s="23" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="199" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B199"/>
-      <c r="C199"/>
-      <c r="D199" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="E199"/>
-      <c r="F199" s="28"/>
-      <c r="G199"/>
-      <c r="H199" s="25">
-        <v>2017</v>
+        <v>164</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199" s="10"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H199" s="23" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="200" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B200" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C200" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D200" s="31"/>
-      <c r="E200" s="28"/>
+        <v>165</v>
+      </c>
+      <c r="B200"/>
+      <c r="C200"/>
+      <c r="D200" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="E200"/>
       <c r="F200" s="28"/>
-      <c r="G200" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H200" s="23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G200"/>
+      <c r="H200" s="25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B201" s="22" t="s">
         <v>4</v>
@@ -5270,18 +5272,19 @@
       <c r="C201" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D201" s="22" t="s">
-        <v>4</v>
-      </c>
+      <c r="D201" s="31"/>
       <c r="E201" s="28"/>
       <c r="F201" s="28"/>
-      <c r="G201" s="22" t="s">
-        <v>4</v>
+      <c r="G201" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H201" s="23" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B202" s="22" t="s">
         <v>4</v>
@@ -5297,31 +5300,30 @@
       <c r="G202" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H202" s="25"/>
     </row>
     <row r="203" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C203" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D203" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B203" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E203" s="28"/>
-      <c r="F203" s="6"/>
+      <c r="F203" s="28"/>
       <c r="G203" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H203" s="26"/>
+      <c r="H203" s="25"/>
     </row>
     <row r="204" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>4</v>
@@ -5332,13 +5334,33 @@
       <c r="D204" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E204" s="6"/>
+      <c r="E204" s="28"/>
       <c r="F204" s="6"/>
-      <c r="G204" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H204" s="27"/>
-      <c r="O204" s="23"/>
+      <c r="G204" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H204" s="26"/>
+    </row>
+    <row r="205" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H205" s="27"/>
+      <c r="O205" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A5:I208">

--- a/scope.XLSX
+++ b/scope.XLSX
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="205">
   <si>
     <t>ROOM</t>
   </si>
@@ -834,7 +834,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -926,6 +926,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1250,9 +1253,9 @@
   <dimension ref="A1:O205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
+      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2769,9 +2772,7 @@
       <c r="C78" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="D78" s="46"/>
       <c r="E78" s="8" t="s">
         <v>4</v>
       </c>

--- a/scope.XLSX
+++ b/scope.XLSX
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="209">
   <si>
     <t>ROOM</t>
   </si>
@@ -638,6 +638,18 @@
   </si>
   <si>
     <t>MS 2158</t>
+  </si>
+  <si>
+    <t>MB 128</t>
+  </si>
+  <si>
+    <t>SS 2111</t>
+  </si>
+  <si>
+    <t>spring/summer 2020</t>
+  </si>
+  <si>
+    <t>fall/winter 2018</t>
   </si>
 </sst>
 </file>
@@ -1253,22 +1265,22 @@
   <dimension ref="A1:O205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" customWidth="1"/>
     <col min="3" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.09765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="15" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -1292,7 +1304,7 @@
       </c>
       <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1315,7 +1327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1325,7 +1337,9 @@
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1336,7 +1350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1359,7 +1373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
@@ -1381,7 +1395,7 @@
       </c>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1404,7 +1418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -1425,7 +1439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1449,7 +1463,7 @@
       </c>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -1473,7 +1487,7 @@
       </c>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
@@ -1495,7 +1509,7 @@
       </c>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1515,7 +1529,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1535,7 +1549,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1559,7 +1573,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -1583,7 +1597,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
@@ -1606,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -1629,7 +1643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -1652,7 +1666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -1675,7 +1689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -1696,7 +1710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1719,7 +1733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -1742,7 +1756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
@@ -1763,7 +1777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -1786,7 +1800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>30</v>
       </c>
@@ -1809,7 +1823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>8</v>
       </c>
@@ -1832,7 +1846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>9</v>
       </c>
@@ -1856,7 +1870,7 @@
       </c>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>10</v>
       </c>
@@ -1877,7 +1891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
@@ -1896,7 +1910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
@@ -1919,7 +1933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
@@ -1940,7 +1954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
@@ -1961,7 +1975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>35</v>
       </c>
@@ -1984,7 +1998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
@@ -2000,7 +2014,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
@@ -2013,16 +2027,18 @@
         <v>2</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="33" t="s">
+        <v>4</v>
+      </c>
       <c r="E35" s="33" t="s">
         <v>4</v>
       </c>
@@ -2032,7 +2048,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
@@ -2048,7 +2064,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
@@ -2064,7 +2080,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -2080,7 +2096,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="19" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
@@ -2096,7 +2112,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>39</v>
       </c>
@@ -2112,7 +2128,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -2128,7 +2144,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>40</v>
       </c>
@@ -2144,7 +2160,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
         <v>1</v>
       </c>
@@ -2168,7 +2184,7 @@
       </c>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>3</v>
       </c>
@@ -2192,7 +2208,7 @@
       </c>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>41</v>
       </c>
@@ -2208,7 +2224,7 @@
       </c>
       <c r="H45" s="23"/>
     </row>
-    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>42</v>
       </c>
@@ -2223,7 +2239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>43</v>
       </c>
@@ -2239,7 +2255,7 @@
       </c>
       <c r="H47" s="25"/>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>44</v>
       </c>
@@ -2255,7 +2271,7 @@
       </c>
       <c r="H48" s="25"/>
     </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>45</v>
       </c>
@@ -2270,7 +2286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>46</v>
       </c>
@@ -2285,7 +2301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>47</v>
       </c>
@@ -2308,7 +2324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>48</v>
       </c>
@@ -2331,7 +2347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="20" t="s">
         <v>179</v>
       </c>
@@ -2344,7 +2360,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="29"/>
     </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>49</v>
       </c>
@@ -2367,7 +2383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="20" t="s">
         <v>180</v>
       </c>
@@ -2380,26 +2396,24 @@
       <c r="F55" s="10"/>
       <c r="G55" s="29"/>
     </row>
-    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>51</v>
       </c>
@@ -2417,7 +2431,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>51</v>
       </c>
@@ -2433,7 +2447,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>52</v>
       </c>
@@ -2449,7 +2463,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -2465,123 +2479,126 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="33" t="s">
+        <v>4</v>
+      </c>
       <c r="E61" s="33" t="s">
         <v>4</v>
       </c>
       <c r="F61" s="10"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G61"/>
+      <c r="H61" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="29"/>
+      <c r="D62" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>4</v>
+      </c>
       <c r="F62" s="10"/>
-      <c r="G62" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="29"/>
+      <c r="H62" s="23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>4</v>
-      </c>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
+      <c r="D64" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>4</v>
+      </c>
       <c r="F64" s="10"/>
-      <c r="G64" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="29"/>
+      <c r="H64" s="23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>4</v>
-      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="10"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="23">
+      <c r="G65" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H66" s="23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>4</v>
@@ -2591,36 +2608,38 @@
       <c r="E68" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="25"/>
+    </row>
+    <row r="69" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="C69" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
       <c r="G69" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H69" s="25"/>
-    </row>
-    <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -2629,67 +2648,61 @@
       <c r="D70" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>4</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B71" s="29"/>
+      <c r="C71" s="6"/>
       <c r="D71" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B72" s="29"/>
+        <v>60</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C72" s="6"/>
-      <c r="D72" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="6"/>
+      <c r="E72" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>2</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
       <c r="G73" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>194</v>
       </c>
@@ -2707,7 +2720,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>61</v>
       </c>
@@ -2727,7 +2740,7 @@
       </c>
       <c r="H75" s="27"/>
     </row>
-    <row r="76" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>62</v>
       </c>
@@ -2746,7 +2759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>204</v>
       </c>
@@ -2762,7 +2775,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>204</v>
       </c>
@@ -2786,7 +2799,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>63</v>
       </c>
@@ -2807,7 +2820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>64</v>
       </c>
@@ -2826,7 +2839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>65</v>
       </c>
@@ -2845,7 +2858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>66</v>
       </c>
@@ -2864,7 +2877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>67</v>
       </c>
@@ -2883,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>91</v>
       </c>
@@ -2906,7 +2919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>92</v>
       </c>
@@ -2927,7 +2940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="20" t="s">
         <v>181</v>
       </c>
@@ -2945,7 +2958,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="20" t="s">
         <v>182</v>
       </c>
@@ -2963,7 +2976,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>69</v>
       </c>
@@ -2986,7 +2999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>70</v>
       </c>
@@ -3005,7 +3018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>71</v>
       </c>
@@ -3026,7 +3039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>72</v>
       </c>
@@ -3047,7 +3060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>73</v>
       </c>
@@ -3064,7 +3077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>74</v>
       </c>
@@ -3083,7 +3096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>189</v>
       </c>
@@ -3099,7 +3112,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>75</v>
       </c>
@@ -3118,7 +3131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>190</v>
       </c>
@@ -3134,7 +3147,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>76</v>
       </c>
@@ -3157,7 +3170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="20" t="s">
         <v>184</v>
       </c>
@@ -3175,7 +3188,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="20" t="s">
         <v>183</v>
       </c>
@@ -3193,7 +3206,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="20" t="s">
         <v>195</v>
       </c>
@@ -3211,7 +3224,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>77</v>
       </c>
@@ -3230,7 +3243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>78</v>
       </c>
@@ -3249,7 +3262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>79</v>
       </c>
@@ -3268,7 +3281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>80</v>
       </c>
@@ -3288,7 +3301,7 @@
       </c>
       <c r="H104" s="23"/>
     </row>
-    <row r="105" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>81</v>
       </c>
@@ -3308,7 +3321,7 @@
       </c>
       <c r="H105" s="23"/>
     </row>
-    <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>82</v>
       </c>
@@ -3327,7 +3340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>83</v>
       </c>
@@ -3346,7 +3359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="20" t="s">
         <v>185</v>
       </c>
@@ -3364,7 +3377,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="20" t="s">
         <v>186</v>
       </c>
@@ -3382,7 +3395,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="20" t="s">
         <v>187</v>
       </c>
@@ -3400,7 +3413,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="20" t="s">
         <v>188</v>
       </c>
@@ -3418,7 +3431,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>84</v>
       </c>
@@ -3438,7 +3451,7 @@
       </c>
       <c r="H112" s="23"/>
     </row>
-    <row r="113" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>85</v>
       </c>
@@ -3458,7 +3471,7 @@
       </c>
       <c r="H113" s="23"/>
     </row>
-    <row r="114" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>86</v>
       </c>
@@ -3477,7 +3490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>87</v>
       </c>
@@ -3496,7 +3509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>88</v>
       </c>
@@ -3517,7 +3530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>89</v>
       </c>
@@ -3538,7 +3551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>90</v>
       </c>
@@ -3562,7 +3575,7 @@
       </c>
       <c r="H118" s="23"/>
     </row>
-    <row r="119" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>93</v>
       </c>
@@ -3584,7 +3597,7 @@
       </c>
       <c r="H119" s="23"/>
     </row>
-    <row r="120" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>68</v>
       </c>
@@ -3608,7 +3621,7 @@
       </c>
       <c r="H120" s="23"/>
     </row>
-    <row r="121" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>96</v>
       </c>
@@ -3628,7 +3641,7 @@
       </c>
       <c r="H121" s="25"/>
     </row>
-    <row r="122" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>94</v>
       </c>
@@ -3650,7 +3663,7 @@
       </c>
       <c r="H122" s="23"/>
     </row>
-    <row r="123" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>95</v>
       </c>
@@ -3671,7 +3684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>191</v>
       </c>
@@ -3689,7 +3702,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>192</v>
       </c>
@@ -3707,7 +3720,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>193</v>
       </c>
@@ -3725,7 +3738,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>97</v>
       </c>
@@ -3748,7 +3761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>196</v>
       </c>
@@ -3766,7 +3779,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>98</v>
       </c>
@@ -3789,7 +3802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>99</v>
       </c>
@@ -3808,7 +3821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="16" t="s">
         <v>100</v>
       </c>
@@ -3827,7 +3840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="16" t="s">
         <v>101</v>
       </c>
@@ -3850,7 +3863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>102</v>
       </c>
@@ -3873,7 +3886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>103</v>
       </c>
@@ -3897,7 +3910,7 @@
       </c>
       <c r="H134" s="27"/>
     </row>
-    <row r="135" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>104</v>
       </c>
@@ -3920,7 +3933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>105</v>
       </c>
@@ -3943,7 +3956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>106</v>
       </c>
@@ -3966,7 +3979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>107</v>
       </c>
@@ -3985,7 +3998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="16" t="s">
         <v>108</v>
       </c>
@@ -4006,7 +4019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="16" t="s">
         <v>109</v>
       </c>
@@ -4028,7 +4041,7 @@
       </c>
       <c r="H140" s="27"/>
     </row>
-    <row r="141" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>110</v>
       </c>
@@ -4047,7 +4060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>111</v>
       </c>
@@ -4066,7 +4079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>112</v>
       </c>
@@ -4085,7 +4098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>113</v>
       </c>
@@ -4104,55 +4117,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="16" t="s">
+    <row r="145" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145" s="28"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B145" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F145" s="17" t="s">
+      <c r="B146" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G145" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="16" t="s">
+      <c r="G146" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B146" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C146" s="32"/>
-      <c r="D146" s="41"/>
-      <c r="E146" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F146" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="G146" s="39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="16" t="s">
-        <v>116</v>
-      </c>
       <c r="B147" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C147" s="32"/>
-      <c r="D147" s="36" t="s">
-        <v>4</v>
-      </c>
+      <c r="D147" s="41"/>
       <c r="E147" s="36" t="s">
         <v>4</v>
       </c>
@@ -4163,38 +4168,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B148" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="32"/>
+      <c r="D148" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E148" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G148" s="39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B148" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C148" s="13"/>
-      <c r="D148" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E148" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F148" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G148" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="16" t="s">
-        <v>118</v>
-      </c>
       <c r="B149" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C149" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D149" s="13"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="17" t="s">
+        <v>4</v>
+      </c>
       <c r="E149" s="17" t="s">
         <v>4</v>
       </c>
@@ -4205,79 +4210,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
+    <row r="150" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" s="13"/>
+      <c r="E150" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G150" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B150" s="10"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="7" t="s">
+      <c r="B151" s="10"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+    </row>
+    <row r="152" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B151" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C151" s="6"/>
-      <c r="D151" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="7" t="s">
+      <c r="B152" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B152" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
+      <c r="B153" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F153" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>4</v>
@@ -4296,53 +4301,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B155" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D155" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E155" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F155" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G155" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="7" t="s">
+      <c r="B156" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E156" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F156" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G156" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="B156" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C156" s="6"/>
-      <c r="D156" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E156" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F156" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G156" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="B157" s="22" t="s">
         <v>4</v>
@@ -4361,181 +4366,186 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B158" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="D158" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F158" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G158" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B158" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D158" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E158" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F158" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G158" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="7" t="s">
+      <c r="B159" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F159" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G159" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B159" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F159" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G159" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="7" t="s">
+      <c r="B160" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B160" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F160" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G160" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="7" t="s">
+      <c r="B161" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F161" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G161" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="7" t="s">
+      <c r="B162" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B162" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E162" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F162" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G162" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="7" t="s">
+      <c r="B163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B163" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E163" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F163" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G163" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B164" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164" s="10"/>
-      <c r="D164" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E164" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F164" s="10"/>
-      <c r="G164"/>
-      <c r="H164" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F164" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G164" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B165" s="10"/>
+      <c r="B165" s="21" t="s">
+        <v>4</v>
+      </c>
       <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="31"/>
+      <c r="D165" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="F165" s="10"/>
-      <c r="G165" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H165" s="23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G165"/>
+      <c r="H165" s="23">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
         <v>134</v>
       </c>
@@ -4558,7 +4568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
         <v>135</v>
       </c>
@@ -4579,7 +4589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
         <v>136</v>
       </c>
@@ -4602,7 +4612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
         <v>137</v>
       </c>
@@ -4625,7 +4635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>138</v>
       </c>
@@ -4648,7 +4658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
         <v>139</v>
       </c>
@@ -4671,7 +4681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>140</v>
       </c>
@@ -4694,7 +4704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>141</v>
       </c>
@@ -4718,7 +4728,7 @@
       </c>
       <c r="H173" s="25"/>
     </row>
-    <row r="174" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
         <v>142</v>
       </c>
@@ -4739,7 +4749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="7" t="s">
         <v>143</v>
       </c>
@@ -4760,7 +4770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="7" t="s">
         <v>144</v>
       </c>
@@ -4779,7 +4789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="7" t="s">
         <v>145</v>
       </c>
@@ -4800,7 +4810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="7" t="s">
         <v>146</v>
       </c>
@@ -4821,7 +4831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="7" t="s">
         <v>147</v>
       </c>
@@ -4842,7 +4852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="7" t="s">
         <v>148</v>
       </c>
@@ -4863,7 +4873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
         <v>149</v>
       </c>
@@ -4884,7 +4894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
         <v>150</v>
       </c>
@@ -4905,7 +4915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="7" t="s">
         <v>151</v>
       </c>
@@ -4926,7 +4936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
         <v>152</v>
       </c>
@@ -4949,7 +4959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="7" t="s">
         <v>153</v>
       </c>
@@ -4972,7 +4982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
         <v>154</v>
       </c>
@@ -4992,7 +5002,7 @@
       </c>
       <c r="H186" s="25"/>
     </row>
-    <row r="187" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="7" t="s">
         <v>155</v>
       </c>
@@ -5013,7 +5023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
         <v>156</v>
       </c>
@@ -5034,7 +5044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="7" t="s">
         <v>157</v>
       </c>
@@ -5057,7 +5067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
         <v>158</v>
       </c>
@@ -5076,7 +5086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="7" t="s">
         <v>159</v>
       </c>
@@ -5095,7 +5105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
         <v>160</v>
       </c>
@@ -5114,7 +5124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="7" t="s">
         <v>161</v>
       </c>
@@ -5133,7 +5143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
         <v>162</v>
       </c>
@@ -5152,7 +5162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
         <v>163</v>
       </c>
@@ -5173,7 +5183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
         <v>166</v>
       </c>
@@ -5189,7 +5199,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
         <v>166</v>
       </c>
@@ -5208,10 +5218,10 @@
         <v>2</v>
       </c>
       <c r="H197" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
         <v>164</v>
       </c>
@@ -5227,7 +5237,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="7" t="s">
         <v>164</v>
       </c>
@@ -5247,7 +5257,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
         <v>165</v>
       </c>
@@ -5263,7 +5273,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
         <v>165</v>
       </c>
@@ -5283,7 +5293,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="7" t="s">
         <v>167</v>
       </c>
@@ -5302,7 +5312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="7" t="s">
         <v>168</v>
       </c>
@@ -5322,7 +5332,7 @@
       </c>
       <c r="H203" s="25"/>
     </row>
-    <row r="204" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
         <v>169</v>
       </c>
@@ -5342,7 +5352,7 @@
       </c>
       <c r="H204" s="26"/>
     </row>
-    <row r="205" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="7" t="s">
         <v>170</v>
       </c>

--- a/scope.XLSX
+++ b/scope.XLSX
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="209">
   <si>
     <t>ROOM</t>
   </si>
@@ -1265,9 +1265,9 @@
   <dimension ref="A1:O205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD78"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1354,9 +1354,7 @@
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="B4"/>
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>

--- a/scope.XLSX
+++ b/scope.XLSX
@@ -646,10 +646,10 @@
     <t>SS 2111</t>
   </si>
   <si>
-    <t>spring/summer 2020</t>
-  </si>
-  <si>
     <t>fall/winter 2018</t>
+  </si>
+  <si>
+    <t>spring/summer 2022</t>
   </si>
 </sst>
 </file>
@@ -1265,9 +1265,9 @@
   <dimension ref="A1:O205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="H198" sqref="H198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2492,7 +2492,7 @@
       <c r="F61" s="10"/>
       <c r="G61"/>
       <c r="H61" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -5216,7 +5216,7 @@
         <v>2</v>
       </c>
       <c r="H197" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="198" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">

--- a/scope.XLSX
+++ b/scope.XLSX
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\03_Website\_TIL Website\TIL with python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitkapadia/Desktop/ACE-transforming/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6C2AFE-BDB9-DD44-B2B5-8475FAD20FBB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="10380"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="208">
   <si>
     <t>ROOM</t>
   </si>
@@ -629,9 +630,6 @@
   </si>
   <si>
     <t>ENVIRONMENTAL</t>
-  </si>
-  <si>
-    <t>fall/winter 2019</t>
   </si>
   <si>
     <t>spring/summer 2018</t>
@@ -655,8 +653,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1048,6 +1046,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1083,6 +1098,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1258,29 +1290,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="H198" sqref="H198"/>
+      <selection pane="bottomLeft" activeCell="H200" sqref="H200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="23.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.3984375" style="1" customWidth="1"/>
     <col min="3" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.09765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.09765625" style="1"/>
+    <col min="7" max="7" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="15" customFormat="1" ht="35.25" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1336,7 @@
       </c>
       <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1327,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1371,7 +1403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
@@ -1393,7 +1425,7 @@
       </c>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -1437,7 +1469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1461,7 +1493,7 @@
       </c>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -1485,7 +1517,7 @@
       </c>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
@@ -1507,7 +1539,7 @@
       </c>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1527,7 +1559,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1547,7 +1579,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1571,7 +1603,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -1595,7 +1627,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
@@ -1618,7 +1650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -1641,7 +1673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -1664,7 +1696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -1687,7 +1719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -1708,7 +1740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1731,7 +1763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -1754,7 +1786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
@@ -1775,7 +1807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -1798,7 +1830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>30</v>
       </c>
@@ -1821,7 +1853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>8</v>
       </c>
@@ -1844,7 +1876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>9</v>
       </c>
@@ -1868,7 +1900,7 @@
       </c>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>10</v>
       </c>
@@ -1889,7 +1921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
@@ -1908,7 +1940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
@@ -1931,7 +1963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
@@ -1952,7 +1984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
@@ -1973,7 +2005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>35</v>
       </c>
@@ -1996,7 +2028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
@@ -2012,7 +2044,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
@@ -2028,7 +2060,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>37</v>
       </c>
@@ -2046,7 +2078,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
@@ -2062,7 +2094,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
@@ -2078,7 +2110,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -2094,7 +2126,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="19" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" s="19" customFormat="1" ht="20.25" customHeight="1">
       <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
@@ -2110,7 +2142,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A40" s="7" t="s">
         <v>39</v>
       </c>
@@ -2126,7 +2158,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -2142,7 +2174,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A42" s="7" t="s">
         <v>40</v>
       </c>
@@ -2158,7 +2190,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A43" s="16" t="s">
         <v>1</v>
       </c>
@@ -2182,7 +2214,7 @@
       </c>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A44" s="16" t="s">
         <v>3</v>
       </c>
@@ -2206,7 +2238,7 @@
       </c>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A45" s="7" t="s">
         <v>41</v>
       </c>
@@ -2222,7 +2254,7 @@
       </c>
       <c r="H45" s="23"/>
     </row>
-    <row r="46" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="7" t="s">
         <v>42</v>
       </c>
@@ -2237,7 +2269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A47" s="7" t="s">
         <v>43</v>
       </c>
@@ -2253,7 +2285,7 @@
       </c>
       <c r="H47" s="25"/>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A48" s="7" t="s">
         <v>44</v>
       </c>
@@ -2269,7 +2301,7 @@
       </c>
       <c r="H48" s="25"/>
     </row>
-    <row r="49" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="7" t="s">
         <v>45</v>
       </c>
@@ -2284,7 +2316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="7" t="s">
         <v>46</v>
       </c>
@@ -2299,7 +2331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>47</v>
       </c>
@@ -2322,7 +2354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>48</v>
       </c>
@@ -2345,7 +2377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="20" t="s">
         <v>179</v>
       </c>
@@ -2358,7 +2390,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="29"/>
     </row>
-    <row r="54" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="7" t="s">
         <v>49</v>
       </c>
@@ -2381,7 +2413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="20.25" customHeight="1">
       <c r="A55" s="20" t="s">
         <v>180</v>
       </c>
@@ -2394,7 +2426,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="29"/>
     </row>
-    <row r="56" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="20.25" customHeight="1">
       <c r="A56" s="7" t="s">
         <v>50</v>
       </c>
@@ -2411,7 +2443,7 @@
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="20.25" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>51</v>
       </c>
@@ -2429,7 +2461,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="20.25" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>51</v>
       </c>
@@ -2445,7 +2477,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="20.25" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>52</v>
       </c>
@@ -2461,7 +2493,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="20.25" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -2477,7 +2509,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="20.25" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>53</v>
       </c>
@@ -2492,10 +2524,10 @@
       <c r="F61" s="10"/>
       <c r="G61"/>
       <c r="H61" s="23" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>54</v>
       </c>
@@ -2513,7 +2545,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="20.25" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>54</v>
       </c>
@@ -2529,7 +2561,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="20.25" customHeight="1">
       <c r="A64" s="7" t="s">
         <v>55</v>
       </c>
@@ -2547,7 +2579,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="20.25" customHeight="1">
       <c r="A65" s="7" t="s">
         <v>55</v>
       </c>
@@ -2563,7 +2595,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="20.25" customHeight="1">
       <c r="A66" s="7" t="s">
         <v>197</v>
       </c>
@@ -2577,7 +2609,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="20.25" customHeight="1">
       <c r="A67" s="7" t="s">
         <v>56</v>
       </c>
@@ -2594,7 +2626,7 @@
       </c>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A68" s="7" t="s">
         <v>57</v>
       </c>
@@ -2614,7 +2646,7 @@
       </c>
       <c r="H68" s="25"/>
     </row>
-    <row r="69" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="20.25" customHeight="1">
       <c r="A69" s="7" t="s">
         <v>58</v>
       </c>
@@ -2633,7 +2665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="20.25" customHeight="1">
       <c r="A70" s="7" t="s">
         <v>59</v>
       </c>
@@ -2652,7 +2684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="20.25" customHeight="1">
       <c r="A71" s="7" t="s">
         <v>198</v>
       </c>
@@ -2668,7 +2700,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="20.25" customHeight="1">
       <c r="A72" s="7" t="s">
         <v>60</v>
       </c>
@@ -2687,9 +2719,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="20.25" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B73"/>
       <c r="C73"/>
@@ -2700,7 +2732,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="20.25" customHeight="1">
       <c r="A74" s="7" t="s">
         <v>194</v>
       </c>
@@ -2718,7 +2750,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="20.25" customHeight="1">
       <c r="A75" s="7" t="s">
         <v>61</v>
       </c>
@@ -2738,7 +2770,7 @@
       </c>
       <c r="H75" s="27"/>
     </row>
-    <row r="76" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="20.25" customHeight="1">
       <c r="A76" s="7" t="s">
         <v>62</v>
       </c>
@@ -2757,9 +2789,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="20.25" customHeight="1">
       <c r="A77" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B77"/>
       <c r="C77"/>
@@ -2770,12 +2802,12 @@
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A78" s="7" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>4</v>
@@ -2797,7 +2829,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="20.25" customHeight="1">
       <c r="A79" s="7" t="s">
         <v>63</v>
       </c>
@@ -2818,7 +2850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" ht="20.25" customHeight="1">
       <c r="A80" s="7" t="s">
         <v>64</v>
       </c>
@@ -2837,7 +2869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" ht="20.25" customHeight="1">
       <c r="A81" s="7" t="s">
         <v>65</v>
       </c>
@@ -2856,7 +2888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="20.25" customHeight="1">
       <c r="A82" s="7" t="s">
         <v>66</v>
       </c>
@@ -2875,7 +2907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" ht="20.25" customHeight="1">
       <c r="A83" s="7" t="s">
         <v>67</v>
       </c>
@@ -2894,7 +2926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" ht="20.25" customHeight="1">
       <c r="A84" s="7" t="s">
         <v>91</v>
       </c>
@@ -2917,7 +2949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" ht="20.25" customHeight="1">
       <c r="A85" s="7" t="s">
         <v>92</v>
       </c>
@@ -2938,7 +2970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" ht="20.25" customHeight="1">
       <c r="A86" s="20" t="s">
         <v>181</v>
       </c>
@@ -2956,7 +2988,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" ht="20.25" customHeight="1">
       <c r="A87" s="20" t="s">
         <v>182</v>
       </c>
@@ -2974,7 +3006,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" ht="20.25" customHeight="1">
       <c r="A88" s="7" t="s">
         <v>69</v>
       </c>
@@ -2997,7 +3029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="20.25" customHeight="1">
       <c r="A89" s="7" t="s">
         <v>70</v>
       </c>
@@ -3016,7 +3048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="20.25" customHeight="1">
       <c r="A90" s="7" t="s">
         <v>71</v>
       </c>
@@ -3037,7 +3069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="20.25" customHeight="1">
       <c r="A91" s="7" t="s">
         <v>72</v>
       </c>
@@ -3058,7 +3090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" ht="20.25" customHeight="1">
       <c r="A92" s="7" t="s">
         <v>73</v>
       </c>
@@ -3075,7 +3107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" ht="20.25" customHeight="1">
       <c r="A93" s="7" t="s">
         <v>74</v>
       </c>
@@ -3094,7 +3126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" ht="20.25" customHeight="1">
       <c r="A94" s="7" t="s">
         <v>189</v>
       </c>
@@ -3110,7 +3142,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="20.25" customHeight="1">
       <c r="A95" s="7" t="s">
         <v>75</v>
       </c>
@@ -3129,7 +3161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" ht="20.25" customHeight="1">
       <c r="A96" s="7" t="s">
         <v>190</v>
       </c>
@@ -3145,7 +3177,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" ht="20.25" customHeight="1">
       <c r="A97" s="7" t="s">
         <v>76</v>
       </c>
@@ -3168,7 +3200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" ht="20.25" customHeight="1">
       <c r="A98" s="20" t="s">
         <v>184</v>
       </c>
@@ -3186,7 +3218,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="20.25" customHeight="1">
       <c r="A99" s="20" t="s">
         <v>183</v>
       </c>
@@ -3204,7 +3236,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="20.25" customHeight="1">
       <c r="A100" s="20" t="s">
         <v>195</v>
       </c>
@@ -3222,7 +3254,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="20.25" customHeight="1">
       <c r="A101" s="7" t="s">
         <v>77</v>
       </c>
@@ -3241,7 +3273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="20.25" customHeight="1">
       <c r="A102" s="7" t="s">
         <v>78</v>
       </c>
@@ -3260,7 +3292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" ht="20.25" customHeight="1">
       <c r="A103" s="7" t="s">
         <v>79</v>
       </c>
@@ -3279,7 +3311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A104" s="7" t="s">
         <v>80</v>
       </c>
@@ -3299,7 +3331,7 @@
       </c>
       <c r="H104" s="23"/>
     </row>
-    <row r="105" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A105" s="7" t="s">
         <v>81</v>
       </c>
@@ -3319,7 +3351,7 @@
       </c>
       <c r="H105" s="23"/>
     </row>
-    <row r="106" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="20.25" customHeight="1">
       <c r="A106" s="7" t="s">
         <v>82</v>
       </c>
@@ -3338,7 +3370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="20.25" customHeight="1">
       <c r="A107" s="7" t="s">
         <v>83</v>
       </c>
@@ -3357,7 +3389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="20.25" customHeight="1">
       <c r="A108" s="20" t="s">
         <v>185</v>
       </c>
@@ -3375,7 +3407,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" ht="20.25" customHeight="1">
       <c r="A109" s="20" t="s">
         <v>186</v>
       </c>
@@ -3393,7 +3425,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" ht="20.25" customHeight="1">
       <c r="A110" s="20" t="s">
         <v>187</v>
       </c>
@@ -3411,7 +3443,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" ht="20.25" customHeight="1">
       <c r="A111" s="20" t="s">
         <v>188</v>
       </c>
@@ -3429,7 +3461,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A112" s="7" t="s">
         <v>84</v>
       </c>
@@ -3449,7 +3481,7 @@
       </c>
       <c r="H112" s="23"/>
     </row>
-    <row r="113" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A113" s="7" t="s">
         <v>85</v>
       </c>
@@ -3469,7 +3501,7 @@
       </c>
       <c r="H113" s="23"/>
     </row>
-    <row r="114" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="20.25" customHeight="1">
       <c r="A114" s="7" t="s">
         <v>86</v>
       </c>
@@ -3488,7 +3520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="20.25" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>87</v>
       </c>
@@ -3507,7 +3539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="20.25" customHeight="1">
       <c r="A116" s="7" t="s">
         <v>88</v>
       </c>
@@ -3528,7 +3560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" ht="20.25" customHeight="1">
       <c r="A117" s="7" t="s">
         <v>89</v>
       </c>
@@ -3549,7 +3581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A118" s="7" t="s">
         <v>90</v>
       </c>
@@ -3573,7 +3605,7 @@
       </c>
       <c r="H118" s="23"/>
     </row>
-    <row r="119" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A119" s="7" t="s">
         <v>93</v>
       </c>
@@ -3595,7 +3627,7 @@
       </c>
       <c r="H119" s="23"/>
     </row>
-    <row r="120" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A120" s="7" t="s">
         <v>68</v>
       </c>
@@ -3619,7 +3651,7 @@
       </c>
       <c r="H120" s="23"/>
     </row>
-    <row r="121" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A121" s="7" t="s">
         <v>96</v>
       </c>
@@ -3639,7 +3671,7 @@
       </c>
       <c r="H121" s="25"/>
     </row>
-    <row r="122" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A122" s="7" t="s">
         <v>94</v>
       </c>
@@ -3661,7 +3693,7 @@
       </c>
       <c r="H122" s="23"/>
     </row>
-    <row r="123" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" ht="20.25" customHeight="1">
       <c r="A123" s="7" t="s">
         <v>95</v>
       </c>
@@ -3682,7 +3714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A124" s="7" t="s">
         <v>191</v>
       </c>
@@ -3700,7 +3732,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="20.25" customHeight="1">
       <c r="A125" s="7" t="s">
         <v>192</v>
       </c>
@@ -3718,7 +3750,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="20.25" customHeight="1">
       <c r="A126" s="7" t="s">
         <v>193</v>
       </c>
@@ -3736,7 +3768,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="20.25" customHeight="1">
       <c r="A127" s="7" t="s">
         <v>97</v>
       </c>
@@ -3759,7 +3791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" ht="20.25" customHeight="1">
       <c r="A128" s="7" t="s">
         <v>196</v>
       </c>
@@ -3777,7 +3809,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="20.25" customHeight="1">
       <c r="A129" s="7" t="s">
         <v>98</v>
       </c>
@@ -3800,7 +3832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="20.25" customHeight="1">
       <c r="A130" s="7" t="s">
         <v>99</v>
       </c>
@@ -3819,7 +3851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="20.25" customHeight="1">
       <c r="A131" s="16" t="s">
         <v>100</v>
       </c>
@@ -3838,7 +3870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" ht="20.25" customHeight="1">
       <c r="A132" s="16" t="s">
         <v>101</v>
       </c>
@@ -3861,7 +3893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="20.25" customHeight="1">
       <c r="A133" s="7" t="s">
         <v>102</v>
       </c>
@@ -3884,7 +3916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="20.25" customHeight="1">
       <c r="A134" s="7" t="s">
         <v>103</v>
       </c>
@@ -3908,7 +3940,7 @@
       </c>
       <c r="H134" s="27"/>
     </row>
-    <row r="135" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="20.25" customHeight="1">
       <c r="A135" s="7" t="s">
         <v>104</v>
       </c>
@@ -3931,7 +3963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="20.25" customHeight="1">
       <c r="A136" s="7" t="s">
         <v>105</v>
       </c>
@@ -3954,7 +3986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" ht="20.25" customHeight="1">
       <c r="A137" s="7" t="s">
         <v>106</v>
       </c>
@@ -3977,7 +4009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" ht="20.25" customHeight="1">
       <c r="A138" s="7" t="s">
         <v>107</v>
       </c>
@@ -3996,7 +4028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" ht="20.25" customHeight="1">
       <c r="A139" s="16" t="s">
         <v>108</v>
       </c>
@@ -4017,7 +4049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="20.25" customHeight="1">
       <c r="A140" s="16" t="s">
         <v>109</v>
       </c>
@@ -4039,7 +4071,7 @@
       </c>
       <c r="H140" s="27"/>
     </row>
-    <row r="141" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" ht="20.25" customHeight="1">
       <c r="A141" s="7" t="s">
         <v>110</v>
       </c>
@@ -4058,7 +4090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="20.25" customHeight="1">
       <c r="A142" s="7" t="s">
         <v>111</v>
       </c>
@@ -4077,7 +4109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" ht="20.25" customHeight="1">
       <c r="A143" s="7" t="s">
         <v>112</v>
       </c>
@@ -4096,7 +4128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" ht="20.25" customHeight="1">
       <c r="A144" s="7" t="s">
         <v>113</v>
       </c>
@@ -4115,9 +4147,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" ht="20.25" customHeight="1">
       <c r="A145" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B145"/>
       <c r="C145"/>
@@ -4128,7 +4160,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" ht="20.25" customHeight="1">
       <c r="A146" s="16" t="s">
         <v>114</v>
       </c>
@@ -4147,7 +4179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" ht="20.25" customHeight="1">
       <c r="A147" s="16" t="s">
         <v>115</v>
       </c>
@@ -4166,7 +4198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" ht="20.25" customHeight="1">
       <c r="A148" s="16" t="s">
         <v>116</v>
       </c>
@@ -4187,7 +4219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" ht="20.25" customHeight="1">
       <c r="A149" s="16" t="s">
         <v>117</v>
       </c>
@@ -4208,7 +4240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" ht="20.25" customHeight="1">
       <c r="A150" s="16" t="s">
         <v>118</v>
       </c>
@@ -4229,7 +4261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" ht="20.25" customHeight="1">
       <c r="A151" s="7" t="s">
         <v>120</v>
       </c>
@@ -4242,7 +4274,7 @@
       <c r="F151"/>
       <c r="G151"/>
     </row>
-    <row r="152" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" ht="20.25" customHeight="1">
       <c r="A152" s="7" t="s">
         <v>119</v>
       </c>
@@ -4259,7 +4291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" ht="20.25" customHeight="1">
       <c r="A153" s="7" t="s">
         <v>121</v>
       </c>
@@ -4278,7 +4310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" ht="20.25" customHeight="1">
       <c r="A154" s="7" t="s">
         <v>122</v>
       </c>
@@ -4299,7 +4331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" ht="20.25" customHeight="1">
       <c r="A155" s="7" t="s">
         <v>123</v>
       </c>
@@ -4320,7 +4352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" ht="20.25" customHeight="1">
       <c r="A156" s="7" t="s">
         <v>124</v>
       </c>
@@ -4343,7 +4375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" ht="20.25" customHeight="1">
       <c r="A157" s="7" t="s">
         <v>125</v>
       </c>
@@ -4364,7 +4396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" ht="20.25" customHeight="1">
       <c r="A158" s="7" t="s">
         <v>126</v>
       </c>
@@ -4385,7 +4417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" ht="20.25" customHeight="1">
       <c r="A159" s="7" t="s">
         <v>127</v>
       </c>
@@ -4408,7 +4440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" ht="20.25" customHeight="1">
       <c r="A160" s="7" t="s">
         <v>128</v>
       </c>
@@ -4431,7 +4463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" ht="20.25" customHeight="1">
       <c r="A161" s="7" t="s">
         <v>129</v>
       </c>
@@ -4454,7 +4486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" ht="20.25" customHeight="1">
       <c r="A162" s="7" t="s">
         <v>130</v>
       </c>
@@ -4477,7 +4509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" ht="20.25" customHeight="1">
       <c r="A163" s="7" t="s">
         <v>131</v>
       </c>
@@ -4500,7 +4532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" ht="20.25" customHeight="1">
       <c r="A164" s="7" t="s">
         <v>132</v>
       </c>
@@ -4523,7 +4555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" ht="20.25" customHeight="1">
       <c r="A165" s="7" t="s">
         <v>133</v>
       </c>
@@ -4543,7 +4575,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" ht="20.25" customHeight="1">
       <c r="A166" s="7" t="s">
         <v>134</v>
       </c>
@@ -4566,7 +4598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" ht="20.25" customHeight="1">
       <c r="A167" s="7" t="s">
         <v>135</v>
       </c>
@@ -4587,7 +4619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" ht="20.25" customHeight="1">
       <c r="A168" s="7" t="s">
         <v>136</v>
       </c>
@@ -4610,7 +4642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" ht="20.25" customHeight="1">
       <c r="A169" s="7" t="s">
         <v>137</v>
       </c>
@@ -4633,7 +4665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" ht="20.25" customHeight="1">
       <c r="A170" s="7" t="s">
         <v>138</v>
       </c>
@@ -4656,7 +4688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" ht="20.25" customHeight="1">
       <c r="A171" s="7" t="s">
         <v>139</v>
       </c>
@@ -4679,7 +4711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" ht="20.25" customHeight="1">
       <c r="A172" s="7" t="s">
         <v>140</v>
       </c>
@@ -4702,7 +4734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" ht="20.25" customHeight="1">
       <c r="A173" s="7" t="s">
         <v>141</v>
       </c>
@@ -4726,7 +4758,7 @@
       </c>
       <c r="H173" s="25"/>
     </row>
-    <row r="174" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" ht="20.25" customHeight="1">
       <c r="A174" s="7" t="s">
         <v>142</v>
       </c>
@@ -4747,7 +4779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" ht="20.25" customHeight="1">
       <c r="A175" s="7" t="s">
         <v>143</v>
       </c>
@@ -4768,7 +4800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" ht="20.25" customHeight="1">
       <c r="A176" s="7" t="s">
         <v>144</v>
       </c>
@@ -4787,7 +4819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" ht="20.25" customHeight="1">
       <c r="A177" s="7" t="s">
         <v>145</v>
       </c>
@@ -4808,7 +4840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" ht="20.25" customHeight="1">
       <c r="A178" s="7" t="s">
         <v>146</v>
       </c>
@@ -4829,7 +4861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" ht="20.25" customHeight="1">
       <c r="A179" s="7" t="s">
         <v>147</v>
       </c>
@@ -4850,7 +4882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" ht="20.25" customHeight="1">
       <c r="A180" s="7" t="s">
         <v>148</v>
       </c>
@@ -4871,7 +4903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" ht="20.25" customHeight="1">
       <c r="A181" s="7" t="s">
         <v>149</v>
       </c>
@@ -4892,7 +4924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" ht="20.25" customHeight="1">
       <c r="A182" s="7" t="s">
         <v>150</v>
       </c>
@@ -4913,7 +4945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" ht="20.25" customHeight="1">
       <c r="A183" s="7" t="s">
         <v>151</v>
       </c>
@@ -4934,7 +4966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" ht="20.25" customHeight="1">
       <c r="A184" s="7" t="s">
         <v>152</v>
       </c>
@@ -4957,7 +4989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" ht="20.25" customHeight="1">
       <c r="A185" s="7" t="s">
         <v>153</v>
       </c>
@@ -4980,7 +5012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" ht="20.25" customHeight="1">
       <c r="A186" s="7" t="s">
         <v>154</v>
       </c>
@@ -5000,7 +5032,7 @@
       </c>
       <c r="H186" s="25"/>
     </row>
-    <row r="187" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" ht="20.25" customHeight="1">
       <c r="A187" s="7" t="s">
         <v>155</v>
       </c>
@@ -5021,7 +5053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" ht="20.25" customHeight="1">
       <c r="A188" s="7" t="s">
         <v>156</v>
       </c>
@@ -5042,7 +5074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" ht="20.25" customHeight="1">
       <c r="A189" s="7" t="s">
         <v>157</v>
       </c>
@@ -5065,7 +5097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" ht="20.25" customHeight="1">
       <c r="A190" s="7" t="s">
         <v>158</v>
       </c>
@@ -5084,7 +5116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" ht="20.25" customHeight="1">
       <c r="A191" s="7" t="s">
         <v>159</v>
       </c>
@@ -5103,7 +5135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" ht="20.25" customHeight="1">
       <c r="A192" s="7" t="s">
         <v>160</v>
       </c>
@@ -5122,7 +5154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" ht="20.25" customHeight="1">
       <c r="A193" s="7" t="s">
         <v>161</v>
       </c>
@@ -5141,7 +5173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" ht="20.25" customHeight="1">
       <c r="A194" s="7" t="s">
         <v>162</v>
       </c>
@@ -5160,7 +5192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" ht="20.25" customHeight="1">
       <c r="A195" s="7" t="s">
         <v>163</v>
       </c>
@@ -5181,7 +5213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" ht="20.25" customHeight="1">
       <c r="A196" s="7" t="s">
         <v>166</v>
       </c>
@@ -5197,7 +5229,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" ht="20.25" customHeight="1">
       <c r="A197" s="7" t="s">
         <v>166</v>
       </c>
@@ -5216,10 +5248,10 @@
         <v>2</v>
       </c>
       <c r="H197" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" ht="20.25" customHeight="1">
       <c r="A198" s="7" t="s">
         <v>164</v>
       </c>
@@ -5235,7 +5267,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" ht="20.25" customHeight="1">
       <c r="A199" s="7" t="s">
         <v>164</v>
       </c>
@@ -5252,10 +5284,10 @@
         <v>2</v>
       </c>
       <c r="H199" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" ht="20.25" customHeight="1">
       <c r="A200" s="7" t="s">
         <v>165</v>
       </c>
@@ -5271,7 +5303,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" ht="20.25" customHeight="1">
       <c r="A201" s="7" t="s">
         <v>165</v>
       </c>
@@ -5288,10 +5320,10 @@
         <v>2</v>
       </c>
       <c r="H201" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" ht="20.25" customHeight="1">
       <c r="A202" s="7" t="s">
         <v>167</v>
       </c>
@@ -5310,7 +5342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" ht="20.25" customHeight="1">
       <c r="A203" s="7" t="s">
         <v>168</v>
       </c>
@@ -5330,7 +5362,7 @@
       </c>
       <c r="H203" s="25"/>
     </row>
-    <row r="204" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" ht="20.25" customHeight="1">
       <c r="A204" s="7" t="s">
         <v>169</v>
       </c>
@@ -5350,7 +5382,7 @@
       </c>
       <c r="H204" s="26"/>
     </row>
-    <row r="205" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" ht="20.25" customHeight="1">
       <c r="A205" s="7" t="s">
         <v>170</v>
       </c>

--- a/scope.XLSX
+++ b/scope.XLSX
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitkapadia/Desktop/ACE-transforming/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\03_Website\_TIL Website\TIL with python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6C2AFE-BDB9-DD44-B2B5-8475FAD20FBB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="210">
   <si>
     <t>ROOM</t>
   </si>
@@ -648,13 +647,19 @@
   </si>
   <si>
     <t>spring/summer 2022</t>
+  </si>
+  <si>
+    <t>spring/summer 2017</t>
+  </si>
+  <si>
+    <t>RL 14190</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -773,7 +778,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -837,6 +842,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -844,7 +860,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -938,6 +954,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1046,23 +1065,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1098,23 +1100,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1290,29 +1275,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="H200" sqref="H200"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.3984375" style="1" customWidth="1"/>
     <col min="3" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" ht="35.25" customHeight="1">
+    <row r="1" spans="1:8" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1321,7 @@
       </c>
       <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1359,7 +1344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1382,7 +1367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1403,7 +1388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
@@ -1425,7 +1410,7 @@
       </c>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1448,7 +1433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -1469,7 +1454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1493,7 +1478,7 @@
       </c>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1">
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -1517,7 +1502,7 @@
       </c>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
@@ -1539,7 +1524,7 @@
       </c>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1559,7 +1544,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1579,7 +1564,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1603,7 +1588,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -1627,7 +1612,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
@@ -1650,7 +1635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -1673,7 +1658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -1696,7 +1681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -1719,7 +1704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -1740,7 +1725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1763,7 +1748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -1786,7 +1771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
@@ -1807,7 +1792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -1830,7 +1815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>30</v>
       </c>
@@ -1853,7 +1838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>8</v>
       </c>
@@ -1876,7 +1861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>9</v>
       </c>
@@ -1900,7 +1885,7 @@
       </c>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>10</v>
       </c>
@@ -1921,7 +1906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
@@ -1940,7 +1925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
@@ -1963,7 +1948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1">
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
@@ -1984,7 +1969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
@@ -2005,7 +1990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>35</v>
       </c>
@@ -2028,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1">
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
@@ -2040,11 +2025,11 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="29"/>
-      <c r="H33" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="H33" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
@@ -2060,7 +2045,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+    <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>37</v>
       </c>
@@ -2074,11 +2059,11 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="29"/>
-      <c r="H35" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="H35" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
@@ -2094,7 +2079,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1">
+    <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
@@ -2106,11 +2091,11 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="29"/>
-      <c r="H37" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="H37" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -2126,7 +2111,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="19" customFormat="1" ht="20.25" customHeight="1">
+    <row r="39" spans="1:8" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
@@ -2138,11 +2123,11 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="29"/>
-      <c r="H39" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="H39" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>39</v>
       </c>
@@ -2158,7 +2143,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -2170,11 +2155,11 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="H41" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>40</v>
       </c>
@@ -2190,7 +2175,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
         <v>1</v>
       </c>
@@ -2214,7 +2199,7 @@
       </c>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>3</v>
       </c>
@@ -2238,7 +2223,7 @@
       </c>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
+    <row r="45" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>41</v>
       </c>
@@ -2254,7 +2239,7 @@
       </c>
       <c r="H45" s="23"/>
     </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1">
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>42</v>
       </c>
@@ -2269,7 +2254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>43</v>
       </c>
@@ -2285,7 +2270,7 @@
       </c>
       <c r="H47" s="25"/>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
+    <row r="48" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>44</v>
       </c>
@@ -2301,7 +2286,7 @@
       </c>
       <c r="H48" s="25"/>
     </row>
-    <row r="49" spans="1:8" ht="20.25" customHeight="1">
+    <row r="49" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>45</v>
       </c>
@@ -2316,7 +2301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1">
+    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>46</v>
       </c>
@@ -2331,7 +2316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1">
+    <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>47</v>
       </c>
@@ -2354,7 +2339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1">
+    <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>48</v>
       </c>
@@ -2377,7 +2362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1">
+    <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="20" t="s">
         <v>179</v>
       </c>
@@ -2390,7 +2375,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="29"/>
     </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1">
+    <row r="54" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>49</v>
       </c>
@@ -2413,7 +2398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="20.25" customHeight="1">
+    <row r="55" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="20" t="s">
         <v>180</v>
       </c>
@@ -2426,7 +2411,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="29"/>
     </row>
-    <row r="56" spans="1:8" ht="20.25" customHeight="1">
+    <row r="56" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>50</v>
       </c>
@@ -2443,7 +2428,7 @@
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:8" ht="20.25" customHeight="1">
+    <row r="57" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>51</v>
       </c>
@@ -2457,11 +2442,11 @@
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="29"/>
-      <c r="H57" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="20.25" customHeight="1">
+      <c r="H57" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>51</v>
       </c>
@@ -2477,7 +2462,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="20.25" customHeight="1">
+    <row r="59" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>52</v>
       </c>
@@ -2489,11 +2474,11 @@
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="29"/>
-      <c r="H59" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="20.25" customHeight="1">
+      <c r="H59" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -2509,7 +2494,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="20.25" customHeight="1">
+    <row r="61" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>53</v>
       </c>
@@ -2524,10 +2509,10 @@
       <c r="F61" s="10"/>
       <c r="G61"/>
       <c r="H61" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>54</v>
       </c>
@@ -2541,11 +2526,11 @@
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="29"/>
-      <c r="H62" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="20.25" customHeight="1">
+      <c r="H62" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>54</v>
       </c>
@@ -2561,7 +2546,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="20.25" customHeight="1">
+    <row r="64" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>55</v>
       </c>
@@ -2575,11 +2560,11 @@
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="29"/>
-      <c r="H64" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="20.25" customHeight="1">
+      <c r="H64" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>55</v>
       </c>
@@ -2595,7 +2580,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="20.25" customHeight="1">
+    <row r="66" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>197</v>
       </c>
@@ -2609,7 +2594,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="20.25" customHeight="1">
+    <row r="67" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>56</v>
       </c>
@@ -2626,7 +2611,7 @@
       </c>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
+    <row r="68" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>57</v>
       </c>
@@ -2646,7 +2631,7 @@
       </c>
       <c r="H68" s="25"/>
     </row>
-    <row r="69" spans="1:8" ht="20.25" customHeight="1">
+    <row r="69" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>58</v>
       </c>
@@ -2665,7 +2650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="20.25" customHeight="1">
+    <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>59</v>
       </c>
@@ -2684,7 +2669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="20.25" customHeight="1">
+    <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>198</v>
       </c>
@@ -2700,7 +2685,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="20.25" customHeight="1">
+    <row r="72" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>60</v>
       </c>
@@ -2719,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="20.25" customHeight="1">
+    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>204</v>
       </c>
@@ -2732,7 +2717,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="20.25" customHeight="1">
+    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>194</v>
       </c>
@@ -2750,7 +2735,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="20.25" customHeight="1">
+    <row r="75" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>61</v>
       </c>
@@ -2770,7 +2755,7 @@
       </c>
       <c r="H75" s="27"/>
     </row>
-    <row r="76" spans="1:8" ht="20.25" customHeight="1">
+    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>62</v>
       </c>
@@ -2789,57 +2774,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="20.25" customHeight="1">
+    <row r="77" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
+      <c r="B77" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="46"/>
+      <c r="E77" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="H77" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="20.25" customHeight="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D78" s="46"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E78" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F78" s="8" t="s">
-        <v>173</v>
+      <c r="F78" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="20.25" customHeight="1">
+    </row>
+    <row r="79" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="6"/>
-      <c r="D79" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="D79" s="6"/>
       <c r="E79" s="8" t="s">
         <v>4</v>
       </c>
@@ -2850,9 +2838,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="20.25" customHeight="1">
+    <row r="80" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>4</v>
@@ -2869,9 +2857,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="20.25" customHeight="1">
+    <row r="81" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>4</v>
@@ -2888,9 +2876,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="20.25" customHeight="1">
+    <row r="82" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>4</v>
@@ -2907,72 +2895,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="20.25" customHeight="1">
+    <row r="83" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
+      <c r="C83" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E83" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="11" t="s">
-        <v>2</v>
+      <c r="F83" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="20.25" customHeight="1">
+    <row r="84" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C84" s="6"/>
       <c r="D84" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F84" s="8" t="s">
-        <v>173</v>
+      <c r="F84" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="G84" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A85" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>4</v>
-      </c>
+    <row r="85" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" s="29"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="20.25" customHeight="1">
+      <c r="D85" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B86" s="29"/>
       <c r="C86" s="6"/>
@@ -2988,221 +2975,221 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A87" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B87" s="29"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E87" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="23">
+    <row r="87" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="29"/>
+      <c r="C93" s="6"/>
+      <c r="D93"/>
+      <c r="E93" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A88" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A89" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A90" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A91" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" s="6"/>
-      <c r="E91" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A92" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A93" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="20.25" customHeight="1">
+    <row r="94" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B94" s="29"/>
+        <v>75</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C94" s="6"/>
-      <c r="D94"/>
+      <c r="D94" s="6"/>
       <c r="E94" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="23">
+      <c r="F94" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95"/>
+      <c r="E95" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A95" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="20.25" customHeight="1">
+    <row r="96" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96"/>
-      <c r="E96" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="23">
+        <v>76</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A97" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="20.25" customHeight="1">
+    <row r="98" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B98" s="29"/>
       <c r="C98" s="29"/>
@@ -3218,9 +3205,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="20.25" customHeight="1">
+    <row r="99" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="20" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
@@ -3233,30 +3220,31 @@
       <c r="F99" s="29"/>
       <c r="G99" s="29"/>
       <c r="H99" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A100" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="23">
         <v>2016</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="20.25" customHeight="1">
+    <row r="100" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>4</v>
@@ -3273,9 +3261,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="20.25" customHeight="1">
+    <row r="102" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>4</v>
@@ -3292,9 +3280,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="20.25" customHeight="1">
+    <row r="103" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>4</v>
@@ -3310,10 +3298,11 @@
       <c r="G103" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="H103" s="23"/>
+    </row>
+    <row r="104" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>4</v>
@@ -3331,9 +3320,9 @@
       </c>
       <c r="H104" s="23"/>
     </row>
-    <row r="105" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="105" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>4</v>
@@ -3349,11 +3338,10 @@
       <c r="G105" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H105" s="23"/>
-    </row>
-    <row r="106" spans="1:8" ht="20.25" customHeight="1">
+    </row>
+    <row r="106" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>4</v>
@@ -3370,28 +3358,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A107" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>4</v>
-      </c>
+    <row r="107" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B107" s="29"/>
       <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="20.25" customHeight="1">
+      <c r="D107" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B108" s="29"/>
       <c r="C108" s="6"/>
@@ -3403,13 +3390,13 @@
       </c>
       <c r="F108" s="29"/>
       <c r="G108" s="29"/>
-      <c r="H108" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="20.25" customHeight="1">
+      <c r="H108" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B109" s="29"/>
       <c r="C109" s="6"/>
@@ -3421,13 +3408,13 @@
       </c>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
-      <c r="H109" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="20.25" customHeight="1">
+      <c r="H109" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B110" s="29"/>
       <c r="C110" s="6"/>
@@ -3443,27 +3430,29 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A111" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="B111" s="29"/>
+    <row r="111" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C111" s="6"/>
-      <c r="D111" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E111" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="D111" s="6"/>
+      <c r="E111" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H111" s="23"/>
+    </row>
+    <row r="112" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>4</v>
@@ -3481,9 +3470,9 @@
       </c>
       <c r="H112" s="23"/>
     </row>
-    <row r="113" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="113" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>4</v>
@@ -3499,11 +3488,10 @@
       <c r="G113" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H113" s="23"/>
-    </row>
-    <row r="114" spans="1:8" ht="20.25" customHeight="1">
+    </row>
+    <row r="114" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>4</v>
@@ -3520,14 +3508,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="20.25" customHeight="1">
+    <row r="115" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="6"/>
+      <c r="C115" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D115" s="6"/>
       <c r="E115" s="8" t="s">
         <v>4</v>
@@ -3539,9 +3529,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="20.25" customHeight="1">
+    <row r="116" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>4</v>
@@ -3560,9 +3550,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="20.25" customHeight="1">
+    <row r="117" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>4</v>
@@ -3570,7 +3560,9 @@
       <c r="C117" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D117" s="6"/>
+      <c r="D117" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E117" s="8" t="s">
         <v>4</v>
       </c>
@@ -3580,10 +3572,11 @@
       <c r="G117" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="H117" s="23"/>
+    </row>
+    <row r="118" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>4</v>
@@ -3591,23 +3584,21 @@
       <c r="C118" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D118" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="D118" s="10"/>
       <c r="E118" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F118" s="11" t="s">
-        <v>2</v>
+      <c r="F118" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H118" s="23"/>
     </row>
-    <row r="119" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="119" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>4</v>
@@ -3615,31 +3606,29 @@
       <c r="C119" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D119" s="10"/>
+      <c r="D119" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E119" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F119" s="8" t="s">
-        <v>173</v>
+      <c r="F119" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H119" s="23"/>
     </row>
-    <row r="120" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="120" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C120" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
       <c r="E120" s="8" t="s">
         <v>4</v>
       </c>
@@ -3649,17 +3638,19 @@
       <c r="G120" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H120" s="23"/>
-    </row>
-    <row r="121" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="H120" s="25"/>
+    </row>
+    <row r="121" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
+      <c r="D121" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E121" s="8" t="s">
         <v>4</v>
       </c>
@@ -3669,11 +3660,11 @@
       <c r="G121" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H121" s="25"/>
-    </row>
-    <row r="122" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="H121" s="23"/>
+    </row>
+    <row r="122" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>4</v>
@@ -3691,30 +3682,23 @@
       <c r="G122" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H122" s="23"/>
-    </row>
-    <row r="123" spans="1:8" ht="20.25" customHeight="1">
+    </row>
+    <row r="123" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>4</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B123"/>
       <c r="C123" s="6"/>
-      <c r="D123" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="D123" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+    </row>
+    <row r="124" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>191</v>
       </c>
@@ -3732,7 +3716,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="20.25" customHeight="1">
+    <row r="125" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>192</v>
       </c>
@@ -3750,7 +3734,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="20.25" customHeight="1">
+    <row r="126" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>193</v>
       </c>
@@ -3768,7 +3752,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="20.25" customHeight="1">
+    <row r="127" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>97</v>
       </c>
@@ -3791,7 +3775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="20.25" customHeight="1">
+    <row r="128" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>196</v>
       </c>
@@ -3809,7 +3793,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="20.25" customHeight="1">
+    <row r="129" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>98</v>
       </c>
@@ -3832,7 +3816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="20.25" customHeight="1">
+    <row r="130" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>99</v>
       </c>
@@ -3851,7 +3835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="20.25" customHeight="1">
+    <row r="131" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="16" t="s">
         <v>100</v>
       </c>
@@ -3870,7 +3854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="20.25" customHeight="1">
+    <row r="132" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="16" t="s">
         <v>101</v>
       </c>
@@ -3893,7 +3877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="20.25" customHeight="1">
+    <row r="133" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>102</v>
       </c>
@@ -3916,7 +3900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="20.25" customHeight="1">
+    <row r="134" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>103</v>
       </c>
@@ -3940,7 +3924,7 @@
       </c>
       <c r="H134" s="27"/>
     </row>
-    <row r="135" spans="1:8" ht="20.25" customHeight="1">
+    <row r="135" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>104</v>
       </c>
@@ -3963,7 +3947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="20.25" customHeight="1">
+    <row r="136" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>105</v>
       </c>
@@ -3986,7 +3970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="20.25" customHeight="1">
+    <row r="137" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>106</v>
       </c>
@@ -4009,7 +3993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="20.25" customHeight="1">
+    <row r="138" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>107</v>
       </c>
@@ -4028,7 +4012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="20.25" customHeight="1">
+    <row r="139" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="16" t="s">
         <v>108</v>
       </c>
@@ -4049,7 +4033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="20.25" customHeight="1">
+    <row r="140" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="16" t="s">
         <v>109</v>
       </c>
@@ -4071,7 +4055,7 @@
       </c>
       <c r="H140" s="27"/>
     </row>
-    <row r="141" spans="1:8" ht="20.25" customHeight="1">
+    <row r="141" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>110</v>
       </c>
@@ -4090,7 +4074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="20.25" customHeight="1">
+    <row r="142" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>111</v>
       </c>
@@ -4109,7 +4093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="20.25" customHeight="1">
+    <row r="143" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>112</v>
       </c>
@@ -4128,7 +4112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="20.25" customHeight="1">
+    <row r="144" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>113</v>
       </c>
@@ -4147,7 +4131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="20.25" customHeight="1">
+    <row r="145" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>205</v>
       </c>
@@ -4160,7 +4144,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="20.25" customHeight="1">
+    <row r="146" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="16" t="s">
         <v>114</v>
       </c>
@@ -4179,7 +4163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="20.25" customHeight="1">
+    <row r="147" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="16" t="s">
         <v>115</v>
       </c>
@@ -4198,7 +4182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="20.25" customHeight="1">
+    <row r="148" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="16" t="s">
         <v>116</v>
       </c>
@@ -4219,7 +4203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="20.25" customHeight="1">
+    <row r="149" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="16" t="s">
         <v>117</v>
       </c>
@@ -4240,7 +4224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="20.25" customHeight="1">
+    <row r="150" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="16" t="s">
         <v>118</v>
       </c>
@@ -4261,7 +4245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="20.25" customHeight="1">
+    <row r="151" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>120</v>
       </c>
@@ -4274,7 +4258,7 @@
       <c r="F151"/>
       <c r="G151"/>
     </row>
-    <row r="152" spans="1:7" ht="20.25" customHeight="1">
+    <row r="152" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>119</v>
       </c>
@@ -4291,7 +4275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="20.25" customHeight="1">
+    <row r="153" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
         <v>121</v>
       </c>
@@ -4310,7 +4294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="20.25" customHeight="1">
+    <row r="154" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>122</v>
       </c>
@@ -4331,7 +4315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="20.25" customHeight="1">
+    <row r="155" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
         <v>123</v>
       </c>
@@ -4352,7 +4336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="20.25" customHeight="1">
+    <row r="156" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>124</v>
       </c>
@@ -4375,7 +4359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="20.25" customHeight="1">
+    <row r="157" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>125</v>
       </c>
@@ -4396,7 +4380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="20.25" customHeight="1">
+    <row r="158" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
         <v>126</v>
       </c>
@@ -4417,7 +4401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="20.25" customHeight="1">
+    <row r="159" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
         <v>127</v>
       </c>
@@ -4440,7 +4424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="20.25" customHeight="1">
+    <row r="160" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
         <v>128</v>
       </c>
@@ -4463,7 +4447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="20.25" customHeight="1">
+    <row r="161" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
         <v>129</v>
       </c>
@@ -4486,7 +4470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="20.25" customHeight="1">
+    <row r="162" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
         <v>130</v>
       </c>
@@ -4509,7 +4493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="20.25" customHeight="1">
+    <row r="163" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
         <v>131</v>
       </c>
@@ -4532,7 +4516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="20.25" customHeight="1">
+    <row r="164" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
         <v>132</v>
       </c>
@@ -4555,7 +4539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="20.25" customHeight="1">
+    <row r="165" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
         <v>133</v>
       </c>
@@ -4575,7 +4559,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="20.25" customHeight="1">
+    <row r="166" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
         <v>134</v>
       </c>
@@ -4598,7 +4582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="20.25" customHeight="1">
+    <row r="167" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
         <v>135</v>
       </c>
@@ -4619,7 +4603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="20.25" customHeight="1">
+    <row r="168" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
         <v>136</v>
       </c>
@@ -4642,7 +4626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="20.25" customHeight="1">
+    <row r="169" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
         <v>137</v>
       </c>
@@ -4665,7 +4649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="20.25" customHeight="1">
+    <row r="170" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>138</v>
       </c>
@@ -4688,7 +4672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="20.25" customHeight="1">
+    <row r="171" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
         <v>139</v>
       </c>
@@ -4711,7 +4695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="20.25" customHeight="1">
+    <row r="172" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>140</v>
       </c>
@@ -4734,7 +4718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="20.25" customHeight="1">
+    <row r="173" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>141</v>
       </c>
@@ -4758,7 +4742,7 @@
       </c>
       <c r="H173" s="25"/>
     </row>
-    <row r="174" spans="1:8" ht="20.25" customHeight="1">
+    <row r="174" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
         <v>142</v>
       </c>
@@ -4779,7 +4763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="20.25" customHeight="1">
+    <row r="175" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="7" t="s">
         <v>143</v>
       </c>
@@ -4800,7 +4784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="20.25" customHeight="1">
+    <row r="176" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="7" t="s">
         <v>144</v>
       </c>
@@ -4819,7 +4803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="20.25" customHeight="1">
+    <row r="177" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="7" t="s">
         <v>145</v>
       </c>
@@ -4840,7 +4824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="20.25" customHeight="1">
+    <row r="178" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="7" t="s">
         <v>146</v>
       </c>
@@ -4861,7 +4845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="20.25" customHeight="1">
+    <row r="179" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="7" t="s">
         <v>147</v>
       </c>
@@ -4882,7 +4866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="20.25" customHeight="1">
+    <row r="180" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="7" t="s">
         <v>148</v>
       </c>
@@ -4903,7 +4887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="20.25" customHeight="1">
+    <row r="181" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
         <v>149</v>
       </c>
@@ -4924,7 +4908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="20.25" customHeight="1">
+    <row r="182" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
         <v>150</v>
       </c>
@@ -4945,7 +4929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="20.25" customHeight="1">
+    <row r="183" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="7" t="s">
         <v>151</v>
       </c>
@@ -4966,7 +4950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="20.25" customHeight="1">
+    <row r="184" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
         <v>152</v>
       </c>
@@ -4989,7 +4973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="20.25" customHeight="1">
+    <row r="185" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="7" t="s">
         <v>153</v>
       </c>
@@ -5012,7 +4996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="20.25" customHeight="1">
+    <row r="186" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
         <v>154</v>
       </c>
@@ -5032,7 +5016,7 @@
       </c>
       <c r="H186" s="25"/>
     </row>
-    <row r="187" spans="1:8" ht="20.25" customHeight="1">
+    <row r="187" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="7" t="s">
         <v>155</v>
       </c>
@@ -5053,7 +5037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="20.25" customHeight="1">
+    <row r="188" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
         <v>156</v>
       </c>
@@ -5074,7 +5058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="20.25" customHeight="1">
+    <row r="189" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="7" t="s">
         <v>157</v>
       </c>
@@ -5097,7 +5081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="20.25" customHeight="1">
+    <row r="190" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
         <v>158</v>
       </c>
@@ -5116,7 +5100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="20.25" customHeight="1">
+    <row r="191" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="7" t="s">
         <v>159</v>
       </c>
@@ -5135,7 +5119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="20.25" customHeight="1">
+    <row r="192" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
         <v>160</v>
       </c>
@@ -5154,7 +5138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="20.25" customHeight="1">
+    <row r="193" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="7" t="s">
         <v>161</v>
       </c>
@@ -5173,7 +5157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="20.25" customHeight="1">
+    <row r="194" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
         <v>162</v>
       </c>
@@ -5192,7 +5176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="20.25" customHeight="1">
+    <row r="195" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
         <v>163</v>
       </c>
@@ -5213,7 +5197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="20.25" customHeight="1">
+    <row r="196" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
         <v>166</v>
       </c>
@@ -5229,7 +5213,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="20.25" customHeight="1">
+    <row r="197" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
         <v>166</v>
       </c>
@@ -5251,7 +5235,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="20.25" customHeight="1">
+    <row r="198" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
         <v>164</v>
       </c>
@@ -5267,7 +5251,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="20.25" customHeight="1">
+    <row r="199" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="7" t="s">
         <v>164</v>
       </c>
@@ -5287,7 +5271,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="20.25" customHeight="1">
+    <row r="200" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
         <v>165</v>
       </c>
@@ -5303,7 +5287,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="20.25" customHeight="1">
+    <row r="201" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
         <v>165</v>
       </c>
@@ -5323,7 +5307,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="20.25" customHeight="1">
+    <row r="202" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="7" t="s">
         <v>167</v>
       </c>
@@ -5342,7 +5326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="20.25" customHeight="1">
+    <row r="203" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="7" t="s">
         <v>168</v>
       </c>
@@ -5362,7 +5346,7 @@
       </c>
       <c r="H203" s="25"/>
     </row>
-    <row r="204" spans="1:15" ht="20.25" customHeight="1">
+    <row r="204" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
         <v>169</v>
       </c>
@@ -5382,7 +5366,7 @@
       </c>
       <c r="H204" s="26"/>
     </row>
-    <row r="205" spans="1:15" ht="20.25" customHeight="1">
+    <row r="205" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="7" t="s">
         <v>170</v>
       </c>

--- a/scope.XLSX
+++ b/scope.XLSX
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\03_Website\_TIL Website\TIL with python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitkapadia/Desktop/ACE-transforming/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C7F91B-1F1C-D84A-9C9C-CB0439A4698A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -646,19 +647,19 @@
     <t>fall/winter 2018</t>
   </si>
   <si>
-    <t>spring/summer 2022</t>
-  </si>
-  <si>
     <t>spring/summer 2017</t>
   </si>
   <si>
     <t>RL 14190</t>
+  </si>
+  <si>
+    <t>spring/summer 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1065,6 +1066,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1100,6 +1118,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1275,19 +1310,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+      <selection pane="bottomLeft" activeCell="H198" sqref="H198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.3984375" style="1" customWidth="1"/>
@@ -1297,7 +1332,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1356,7 @@
       </c>
       <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1344,7 +1379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1367,7 +1402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1388,7 +1423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
@@ -1410,7 +1445,7 @@
       </c>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1433,7 +1468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -1454,7 +1489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1478,7 +1513,7 @@
       </c>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -1502,7 +1537,7 @@
       </c>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
@@ -1524,7 +1559,7 @@
       </c>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1544,7 +1579,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1564,7 +1599,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1588,7 +1623,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -1612,7 +1647,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
@@ -1635,7 +1670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -1681,7 +1716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -1704,7 +1739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -1725,7 +1760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1748,7 +1783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -1771,7 +1806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
@@ -1792,7 +1827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -1815,7 +1850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>30</v>
       </c>
@@ -1838,7 +1873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>8</v>
       </c>
@@ -1861,7 +1896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>9</v>
       </c>
@@ -1885,7 +1920,7 @@
       </c>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>10</v>
       </c>
@@ -1906,7 +1941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
@@ -1925,7 +1960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
@@ -1948,7 +1983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
@@ -1969,7 +2004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
@@ -1990,7 +2025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>35</v>
       </c>
@@ -2013,7 +2048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
@@ -2026,10 +2061,10 @@
       <c r="F33" s="10"/>
       <c r="G33" s="29"/>
       <c r="H33" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
@@ -2045,7 +2080,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>37</v>
       </c>
@@ -2060,10 +2095,10 @@
       <c r="F35" s="10"/>
       <c r="G35" s="29"/>
       <c r="H35" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
@@ -2079,7 +2114,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
@@ -2092,10 +2127,10 @@
       <c r="F37" s="10"/>
       <c r="G37" s="29"/>
       <c r="H37" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -2111,7 +2146,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
@@ -2124,10 +2159,10 @@
       <c r="F39" s="10"/>
       <c r="G39" s="29"/>
       <c r="H39" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>39</v>
       </c>
@@ -2143,7 +2178,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -2156,10 +2191,10 @@
       <c r="F41" s="10"/>
       <c r="G41" s="29"/>
       <c r="H41" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>40</v>
       </c>
@@ -2175,7 +2210,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>1</v>
       </c>
@@ -2199,7 +2234,7 @@
       </c>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>3</v>
       </c>
@@ -2223,7 +2258,7 @@
       </c>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>41</v>
       </c>
@@ -2239,7 +2274,7 @@
       </c>
       <c r="H45" s="23"/>
     </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>42</v>
       </c>
@@ -2254,7 +2289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>43</v>
       </c>
@@ -2270,7 +2305,7 @@
       </c>
       <c r="H47" s="25"/>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>44</v>
       </c>
@@ -2286,7 +2321,7 @@
       </c>
       <c r="H48" s="25"/>
     </row>
-    <row r="49" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>45</v>
       </c>
@@ -2301,7 +2336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>46</v>
       </c>
@@ -2316,7 +2351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>47</v>
       </c>
@@ -2339,7 +2374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>48</v>
       </c>
@@ -2362,7 +2397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>179</v>
       </c>
@@ -2375,7 +2410,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="29"/>
     </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>49</v>
       </c>
@@ -2398,7 +2433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>180</v>
       </c>
@@ -2411,7 +2446,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="29"/>
     </row>
-    <row r="56" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>50</v>
       </c>
@@ -2428,7 +2463,7 @@
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>51</v>
       </c>
@@ -2443,10 +2478,10 @@
       <c r="F57" s="10"/>
       <c r="G57" s="29"/>
       <c r="H57" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>51</v>
       </c>
@@ -2462,7 +2497,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>52</v>
       </c>
@@ -2475,10 +2510,10 @@
       <c r="F59" s="10"/>
       <c r="G59" s="29"/>
       <c r="H59" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -2494,7 +2529,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>53</v>
       </c>
@@ -2509,10 +2544,10 @@
       <c r="F61" s="10"/>
       <c r="G61"/>
       <c r="H61" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>54</v>
       </c>
@@ -2530,7 +2565,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>54</v>
       </c>
@@ -2546,7 +2581,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>55</v>
       </c>
@@ -2561,10 +2596,10 @@
       <c r="F64" s="10"/>
       <c r="G64" s="29"/>
       <c r="H64" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>55</v>
       </c>
@@ -2580,7 +2615,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>197</v>
       </c>
@@ -2594,7 +2629,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>56</v>
       </c>
@@ -2611,7 +2646,7 @@
       </c>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>57</v>
       </c>
@@ -2631,7 +2666,7 @@
       </c>
       <c r="H68" s="25"/>
     </row>
-    <row r="69" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>58</v>
       </c>
@@ -2650,7 +2685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>59</v>
       </c>
@@ -2669,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>198</v>
       </c>
@@ -2685,7 +2720,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>60</v>
       </c>
@@ -2704,7 +2739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>204</v>
       </c>
@@ -2717,7 +2752,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>194</v>
       </c>
@@ -2735,7 +2770,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>61</v>
       </c>
@@ -2755,7 +2790,7 @@
       </c>
       <c r="H75" s="27"/>
     </row>
-    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>62</v>
       </c>
@@ -2774,7 +2809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>203</v>
       </c>
@@ -2798,7 +2833,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>63</v>
       </c>
@@ -2819,7 +2854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>64</v>
       </c>
@@ -2838,7 +2873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>65</v>
       </c>
@@ -2857,7 +2892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>66</v>
       </c>
@@ -2876,7 +2911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>67</v>
       </c>
@@ -2895,7 +2930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>91</v>
       </c>
@@ -2918,7 +2953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>92</v>
       </c>
@@ -2939,7 +2974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>181</v>
       </c>
@@ -2957,7 +2992,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>182</v>
       </c>
@@ -2975,7 +3010,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>69</v>
       </c>
@@ -2998,7 +3033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>70</v>
       </c>
@@ -3017,7 +3052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>71</v>
       </c>
@@ -3038,7 +3073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>72</v>
       </c>
@@ -3059,7 +3094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>73</v>
       </c>
@@ -3076,7 +3111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>74</v>
       </c>
@@ -3095,7 +3130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>189</v>
       </c>
@@ -3111,7 +3146,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>75</v>
       </c>
@@ -3130,7 +3165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>190</v>
       </c>
@@ -3146,7 +3181,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>76</v>
       </c>
@@ -3169,7 +3204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
         <v>184</v>
       </c>
@@ -3187,7 +3222,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>183</v>
       </c>
@@ -3205,7 +3240,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>195</v>
       </c>
@@ -3223,7 +3258,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>77</v>
       </c>
@@ -3242,7 +3277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>78</v>
       </c>
@@ -3261,7 +3296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>79</v>
       </c>
@@ -3280,7 +3315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>80</v>
       </c>
@@ -3300,7 +3335,7 @@
       </c>
       <c r="H103" s="23"/>
     </row>
-    <row r="104" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>81</v>
       </c>
@@ -3320,7 +3355,7 @@
       </c>
       <c r="H104" s="23"/>
     </row>
-    <row r="105" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>82</v>
       </c>
@@ -3339,7 +3374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>83</v>
       </c>
@@ -3358,7 +3393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>185</v>
       </c>
@@ -3376,7 +3411,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>186</v>
       </c>
@@ -3394,7 +3429,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>187</v>
       </c>
@@ -3412,7 +3447,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>188</v>
       </c>
@@ -3430,7 +3465,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>84</v>
       </c>
@@ -3450,7 +3485,7 @@
       </c>
       <c r="H111" s="23"/>
     </row>
-    <row r="112" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>85</v>
       </c>
@@ -3470,7 +3505,7 @@
       </c>
       <c r="H112" s="23"/>
     </row>
-    <row r="113" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>86</v>
       </c>
@@ -3489,7 +3524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>87</v>
       </c>
@@ -3508,7 +3543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>88</v>
       </c>
@@ -3529,7 +3564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>89</v>
       </c>
@@ -3550,7 +3585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>90</v>
       </c>
@@ -3574,7 +3609,7 @@
       </c>
       <c r="H117" s="23"/>
     </row>
-    <row r="118" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>93</v>
       </c>
@@ -3596,7 +3631,7 @@
       </c>
       <c r="H118" s="23"/>
     </row>
-    <row r="119" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>68</v>
       </c>
@@ -3620,7 +3655,7 @@
       </c>
       <c r="H119" s="23"/>
     </row>
-    <row r="120" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>96</v>
       </c>
@@ -3640,7 +3675,7 @@
       </c>
       <c r="H120" s="25"/>
     </row>
-    <row r="121" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>94</v>
       </c>
@@ -3662,7 +3697,7 @@
       </c>
       <c r="H121" s="23"/>
     </row>
-    <row r="122" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>95</v>
       </c>
@@ -3683,9 +3718,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B123"/>
       <c r="C123" s="6"/>
@@ -3698,7 +3733,7 @@
       <c r="F123" s="29"/>
       <c r="G123" s="29"/>
     </row>
-    <row r="124" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>191</v>
       </c>
@@ -3716,7 +3751,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>192</v>
       </c>
@@ -3734,7 +3769,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>193</v>
       </c>
@@ -3752,7 +3787,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>97</v>
       </c>
@@ -3775,7 +3810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>196</v>
       </c>
@@ -3793,7 +3828,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>98</v>
       </c>
@@ -3816,7 +3851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>99</v>
       </c>
@@ -3835,7 +3870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="16" t="s">
         <v>100</v>
       </c>
@@ -3854,7 +3889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="16" t="s">
         <v>101</v>
       </c>
@@ -3877,7 +3912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>102</v>
       </c>
@@ -3900,7 +3935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>103</v>
       </c>
@@ -3924,7 +3959,7 @@
       </c>
       <c r="H134" s="27"/>
     </row>
-    <row r="135" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>104</v>
       </c>
@@ -3947,7 +3982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>105</v>
       </c>
@@ -3970,7 +4005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>106</v>
       </c>
@@ -3993,7 +4028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>107</v>
       </c>
@@ -4012,7 +4047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="16" t="s">
         <v>108</v>
       </c>
@@ -4033,7 +4068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="16" t="s">
         <v>109</v>
       </c>
@@ -4055,7 +4090,7 @@
       </c>
       <c r="H140" s="27"/>
     </row>
-    <row r="141" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>110</v>
       </c>
@@ -4074,7 +4109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>111</v>
       </c>
@@ -4093,7 +4128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>112</v>
       </c>
@@ -4112,7 +4147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>113</v>
       </c>
@@ -4131,7 +4166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>205</v>
       </c>
@@ -4144,7 +4179,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="16" t="s">
         <v>114</v>
       </c>
@@ -4163,7 +4198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="16" t="s">
         <v>115</v>
       </c>
@@ -4182,7 +4217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="16" t="s">
         <v>116</v>
       </c>
@@ -4203,7 +4238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="16" t="s">
         <v>117</v>
       </c>
@@ -4224,7 +4259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="16" t="s">
         <v>118</v>
       </c>
@@ -4245,7 +4280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>120</v>
       </c>
@@ -4258,7 +4293,7 @@
       <c r="F151"/>
       <c r="G151"/>
     </row>
-    <row r="152" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
         <v>119</v>
       </c>
@@ -4275,7 +4310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>121</v>
       </c>
@@ -4294,7 +4329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>122</v>
       </c>
@@ -4315,7 +4350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
         <v>123</v>
       </c>
@@ -4336,7 +4371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
         <v>124</v>
       </c>
@@ -4359,7 +4394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>125</v>
       </c>
@@ -4380,7 +4415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
         <v>126</v>
       </c>
@@ -4401,7 +4436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>127</v>
       </c>
@@ -4424,7 +4459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>128</v>
       </c>
@@ -4447,7 +4482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>129</v>
       </c>
@@ -4470,7 +4505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>130</v>
       </c>
@@ -4493,7 +4528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>131</v>
       </c>
@@ -4516,7 +4551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>132</v>
       </c>
@@ -4539,7 +4574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>133</v>
       </c>
@@ -4559,7 +4594,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>134</v>
       </c>
@@ -4582,7 +4617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>135</v>
       </c>
@@ -4603,7 +4638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
         <v>136</v>
       </c>
@@ -4626,7 +4661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
         <v>137</v>
       </c>
@@ -4649,7 +4684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
         <v>138</v>
       </c>
@@ -4672,7 +4707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>139</v>
       </c>
@@ -4695,7 +4730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
         <v>140</v>
       </c>
@@ -4718,7 +4753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>141</v>
       </c>
@@ -4742,7 +4777,7 @@
       </c>
       <c r="H173" s="25"/>
     </row>
-    <row r="174" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>142</v>
       </c>
@@ -4763,7 +4798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
         <v>143</v>
       </c>
@@ -4784,7 +4819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>144</v>
       </c>
@@ -4803,7 +4838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>145</v>
       </c>
@@ -4824,7 +4859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>146</v>
       </c>
@@ -4845,7 +4880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>147</v>
       </c>
@@ -4866,7 +4901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>148</v>
       </c>
@@ -4887,7 +4922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>149</v>
       </c>
@@ -4908,7 +4943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>150</v>
       </c>
@@ -4929,7 +4964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>151</v>
       </c>
@@ -4950,7 +4985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
         <v>152</v>
       </c>
@@ -4973,7 +5008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
         <v>153</v>
       </c>
@@ -4996,7 +5031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
         <v>154</v>
       </c>
@@ -5016,7 +5051,7 @@
       </c>
       <c r="H186" s="25"/>
     </row>
-    <row r="187" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>155</v>
       </c>
@@ -5037,7 +5072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
         <v>156</v>
       </c>
@@ -5058,7 +5093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>157</v>
       </c>
@@ -5081,7 +5116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>158</v>
       </c>
@@ -5100,7 +5135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
         <v>159</v>
       </c>
@@ -5119,7 +5154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
         <v>160</v>
       </c>
@@ -5138,7 +5173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
         <v>161</v>
       </c>
@@ -5157,7 +5192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>162</v>
       </c>
@@ -5176,7 +5211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>163</v>
       </c>
@@ -5197,7 +5232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
         <v>166</v>
       </c>
@@ -5213,7 +5248,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>166</v>
       </c>
@@ -5232,10 +5267,10 @@
         <v>2</v>
       </c>
       <c r="H197" s="23" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>164</v>
       </c>
@@ -5251,7 +5286,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>164</v>
       </c>
@@ -5271,7 +5306,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>165</v>
       </c>
@@ -5287,7 +5322,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
         <v>165</v>
       </c>
@@ -5307,7 +5342,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
         <v>167</v>
       </c>
@@ -5326,7 +5361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
         <v>168</v>
       </c>
@@ -5346,7 +5381,7 @@
       </c>
       <c r="H203" s="25"/>
     </row>
-    <row r="204" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
         <v>169</v>
       </c>
@@ -5366,7 +5401,7 @@
       </c>
       <c r="H204" s="26"/>
     </row>
-    <row r="205" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
         <v>170</v>
       </c>
@@ -5388,7 +5423,7 @@
       <c r="O205" s="23"/>
     </row>
   </sheetData>
-  <sortState ref="A5:I208">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I208">
     <sortCondition ref="A5:A208"/>
     <sortCondition ref="H5:H208"/>
   </sortState>

--- a/scope.XLSX
+++ b/scope.XLSX
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitkapadia/Desktop/ACE-transforming/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\03_Website\_TIL Website\TIL with python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C7F91B-1F1C-D84A-9C9C-CB0439A4698A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$1:$205</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$1:$206</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="211">
   <si>
     <t>ROOM</t>
   </si>
@@ -654,12 +653,15 @@
   </si>
   <si>
     <t>spring/summer 2021</t>
+  </si>
+  <si>
+    <t>fall/winter 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1066,23 +1068,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1118,23 +1103,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1310,19 +1278,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O205"/>
+  <dimension ref="A1:O206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="H198" sqref="H198"/>
+      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.3984375" style="1" customWidth="1"/>
@@ -1332,7 +1300,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1324,7 @@
       </c>
       <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1379,7 +1347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1402,7 +1370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1423,7 +1391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
@@ -1445,7 +1413,7 @@
       </c>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1468,7 +1436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -1489,7 +1457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1513,7 +1481,7 @@
       </c>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -1537,7 +1505,7 @@
       </c>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
@@ -1559,7 +1527,7 @@
       </c>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1579,7 +1547,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1599,7 +1567,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1623,7 +1591,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -1647,7 +1615,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
@@ -1670,7 +1638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -1693,7 +1661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -1716,7 +1684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -1739,7 +1707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -1760,7 +1728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1783,7 +1751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -1806,7 +1774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
@@ -1827,7 +1795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -1850,7 +1818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>30</v>
       </c>
@@ -1873,7 +1841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>8</v>
       </c>
@@ -1896,7 +1864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>9</v>
       </c>
@@ -1920,7 +1888,7 @@
       </c>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>10</v>
       </c>
@@ -1941,7 +1909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
@@ -1960,7 +1928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
@@ -1983,7 +1951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
@@ -2004,7 +1972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
@@ -2025,7 +1993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>35</v>
       </c>
@@ -2048,7 +2016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
@@ -2064,7 +2032,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
@@ -2080,7 +2048,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>37</v>
       </c>
@@ -2098,7 +2066,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
@@ -2114,7 +2082,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
@@ -2130,7 +2098,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -2146,7 +2114,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
@@ -2162,7 +2130,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>39</v>
       </c>
@@ -2178,7 +2146,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -2194,7 +2162,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>40</v>
       </c>
@@ -2210,7 +2178,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
         <v>1</v>
       </c>
@@ -2234,7 +2202,7 @@
       </c>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>3</v>
       </c>
@@ -2258,7 +2226,7 @@
       </c>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>41</v>
       </c>
@@ -2274,7 +2242,7 @@
       </c>
       <c r="H45" s="23"/>
     </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>42</v>
       </c>
@@ -2289,7 +2257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>43</v>
       </c>
@@ -2305,7 +2273,7 @@
       </c>
       <c r="H47" s="25"/>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>44</v>
       </c>
@@ -2321,7 +2289,7 @@
       </c>
       <c r="H48" s="25"/>
     </row>
-    <row r="49" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>45</v>
       </c>
@@ -2336,7 +2304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>46</v>
       </c>
@@ -2351,7 +2319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>47</v>
       </c>
@@ -2374,7 +2342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>48</v>
       </c>
@@ -2397,7 +2365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="20" t="s">
         <v>179</v>
       </c>
@@ -2410,7 +2378,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="29"/>
     </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>49</v>
       </c>
@@ -2433,7 +2401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="20" t="s">
         <v>180</v>
       </c>
@@ -2446,7 +2414,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="29"/>
     </row>
-    <row r="56" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>50</v>
       </c>
@@ -2463,7 +2431,7 @@
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>51</v>
       </c>
@@ -2481,7 +2449,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>51</v>
       </c>
@@ -2497,7 +2465,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>52</v>
       </c>
@@ -2513,7 +2481,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -2529,7 +2497,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>53</v>
       </c>
@@ -2547,7 +2515,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>54</v>
       </c>
@@ -2565,7 +2533,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>54</v>
       </c>
@@ -2581,7 +2549,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>55</v>
       </c>
@@ -2599,7 +2567,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>55</v>
       </c>
@@ -2615,7 +2583,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>197</v>
       </c>
@@ -2629,7 +2597,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>56</v>
       </c>
@@ -2646,7 +2614,7 @@
       </c>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>57</v>
       </c>
@@ -2666,7 +2634,7 @@
       </c>
       <c r="H68" s="25"/>
     </row>
-    <row r="69" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>58</v>
       </c>
@@ -2685,7 +2653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>59</v>
       </c>
@@ -2704,7 +2672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>198</v>
       </c>
@@ -2720,7 +2688,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>60</v>
       </c>
@@ -2739,7 +2707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>204</v>
       </c>
@@ -2752,7 +2720,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>194</v>
       </c>
@@ -2770,7 +2738,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>61</v>
       </c>
@@ -2790,7 +2758,7 @@
       </c>
       <c r="H75" s="27"/>
     </row>
-    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>62</v>
       </c>
@@ -2809,7 +2777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>203</v>
       </c>
@@ -2833,7 +2801,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>63</v>
       </c>
@@ -2854,7 +2822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>64</v>
       </c>
@@ -2873,7 +2841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>65</v>
       </c>
@@ -2892,7 +2860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>66</v>
       </c>
@@ -2911,7 +2879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>67</v>
       </c>
@@ -2930,7 +2898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>91</v>
       </c>
@@ -2953,7 +2921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>92</v>
       </c>
@@ -2974,7 +2942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="20" t="s">
         <v>181</v>
       </c>
@@ -2992,7 +2960,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="20" t="s">
         <v>182</v>
       </c>
@@ -3010,7 +2978,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>69</v>
       </c>
@@ -3033,7 +3001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>70</v>
       </c>
@@ -3052,7 +3020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>71</v>
       </c>
@@ -3073,7 +3041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>72</v>
       </c>
@@ -3094,7 +3062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>73</v>
       </c>
@@ -3111,7 +3079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>74</v>
       </c>
@@ -3130,7 +3098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>189</v>
       </c>
@@ -3146,7 +3114,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>75</v>
       </c>
@@ -3165,7 +3133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>190</v>
       </c>
@@ -3181,7 +3149,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>76</v>
       </c>
@@ -3204,7 +3172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="20" t="s">
         <v>184</v>
       </c>
@@ -3222,7 +3190,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="20" t="s">
         <v>183</v>
       </c>
@@ -3240,7 +3208,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="20" t="s">
         <v>195</v>
       </c>
@@ -3258,7 +3226,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>77</v>
       </c>
@@ -3277,7 +3245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>78</v>
       </c>
@@ -3296,7 +3264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>79</v>
       </c>
@@ -3315,7 +3283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>80</v>
       </c>
@@ -3335,7 +3303,7 @@
       </c>
       <c r="H103" s="23"/>
     </row>
-    <row r="104" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>81</v>
       </c>
@@ -3355,7 +3323,7 @@
       </c>
       <c r="H104" s="23"/>
     </row>
-    <row r="105" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>82</v>
       </c>
@@ -3374,7 +3342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>83</v>
       </c>
@@ -3393,7 +3361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="20" t="s">
         <v>185</v>
       </c>
@@ -3411,7 +3379,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="20" t="s">
         <v>186</v>
       </c>
@@ -3429,7 +3397,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="20" t="s">
         <v>187</v>
       </c>
@@ -3447,7 +3415,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="20" t="s">
         <v>188</v>
       </c>
@@ -3465,7 +3433,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>84</v>
       </c>
@@ -3485,7 +3453,7 @@
       </c>
       <c r="H111" s="23"/>
     </row>
-    <row r="112" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>85</v>
       </c>
@@ -3505,7 +3473,7 @@
       </c>
       <c r="H112" s="23"/>
     </row>
-    <row r="113" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>86</v>
       </c>
@@ -3524,7 +3492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>87</v>
       </c>
@@ -3543,7 +3511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>88</v>
       </c>
@@ -3564,7 +3532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>89</v>
       </c>
@@ -3585,7 +3553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>90</v>
       </c>
@@ -3609,7 +3577,7 @@
       </c>
       <c r="H117" s="23"/>
     </row>
-    <row r="118" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>93</v>
       </c>
@@ -3631,7 +3599,7 @@
       </c>
       <c r="H118" s="23"/>
     </row>
-    <row r="119" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>68</v>
       </c>
@@ -3655,7 +3623,7 @@
       </c>
       <c r="H119" s="23"/>
     </row>
-    <row r="120" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>96</v>
       </c>
@@ -3675,7 +3643,7 @@
       </c>
       <c r="H120" s="25"/>
     </row>
-    <row r="121" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>94</v>
       </c>
@@ -3697,7 +3665,7 @@
       </c>
       <c r="H121" s="23"/>
     </row>
-    <row r="122" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>95</v>
       </c>
@@ -3718,7 +3686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>208</v>
       </c>
@@ -3733,7 +3701,7 @@
       <c r="F123" s="29"/>
       <c r="G123" s="29"/>
     </row>
-    <row r="124" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>191</v>
       </c>
@@ -3751,7 +3719,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>192</v>
       </c>
@@ -3769,7 +3737,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>193</v>
       </c>
@@ -3787,7 +3755,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>97</v>
       </c>
@@ -3810,7 +3778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>196</v>
       </c>
@@ -3828,7 +3796,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>98</v>
       </c>
@@ -3851,7 +3819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>99</v>
       </c>
@@ -3870,7 +3838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="16" t="s">
         <v>100</v>
       </c>
@@ -3889,7 +3857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="16" t="s">
         <v>101</v>
       </c>
@@ -3912,7 +3880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>102</v>
       </c>
@@ -3935,7 +3903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>103</v>
       </c>
@@ -3959,7 +3927,7 @@
       </c>
       <c r="H134" s="27"/>
     </row>
-    <row r="135" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>104</v>
       </c>
@@ -3982,7 +3950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>105</v>
       </c>
@@ -4005,7 +3973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>106</v>
       </c>
@@ -4028,7 +3996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>107</v>
       </c>
@@ -4047,7 +4015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="16" t="s">
         <v>108</v>
       </c>
@@ -4068,7 +4036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="16" t="s">
         <v>109</v>
       </c>
@@ -4090,7 +4058,7 @@
       </c>
       <c r="H140" s="27"/>
     </row>
-    <row r="141" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>110</v>
       </c>
@@ -4109,7 +4077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>111</v>
       </c>
@@ -4128,7 +4096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>112</v>
       </c>
@@ -4147,7 +4115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>113</v>
       </c>
@@ -4166,7 +4134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>205</v>
       </c>
@@ -4179,7 +4147,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="16" t="s">
         <v>114</v>
       </c>
@@ -4198,7 +4166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="16" t="s">
         <v>115</v>
       </c>
@@ -4217,7 +4185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="16" t="s">
         <v>116</v>
       </c>
@@ -4238,7 +4206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="16" t="s">
         <v>117</v>
       </c>
@@ -4259,7 +4227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="16" t="s">
         <v>118</v>
       </c>
@@ -4280,7 +4248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>120</v>
       </c>
@@ -4292,67 +4260,63 @@
       <c r="E151"/>
       <c r="F151"/>
       <c r="G151"/>
-    </row>
-    <row r="152" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H151" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B152" s="10"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="30"/>
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152" s="23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B152" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="7" t="s">
+      <c r="B153" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F153" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="7" t="s">
+      <c r="B154" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F154" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G154" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>4</v>
@@ -4371,53 +4335,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B156" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D156" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E156" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F156" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G156" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
+      <c r="B157" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G157" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="B157" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C157" s="6"/>
-      <c r="D157" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E157" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F157" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G157" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="B158" s="22" t="s">
         <v>4</v>
@@ -4436,631 +4400,630 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B159" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F159" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G159" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B159" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D159" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E159" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F159" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G159" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="7" t="s">
+      <c r="B160" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F160" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G160" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B160" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F160" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G160" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
+      <c r="B161" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F161" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G161" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="7" t="s">
+      <c r="B162" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B162" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E162" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F162" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G162" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="7" t="s">
+      <c r="B163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F163" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G163" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="7" t="s">
+      <c r="B164" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B164" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E164" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F164" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G164" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="7" t="s">
+      <c r="B165" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F165" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G165" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B165" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" s="10"/>
-      <c r="D165" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E165" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F165" s="10"/>
-      <c r="G165"/>
-      <c r="H165" s="23">
+      <c r="B166" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="10"/>
+      <c r="D166" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E166" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" s="10"/>
+      <c r="G166"/>
+      <c r="H166" s="23">
         <v>2018</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="7" t="s">
+    <row r="167" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B166" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E166" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F166" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G166" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="7" t="s">
+      <c r="B167" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B167" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C167" s="6"/>
-      <c r="D167" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E167" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F167" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G167" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="7" t="s">
+      <c r="B168" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E168" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G168" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B168" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E168" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F168" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G168" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="7" t="s">
+      <c r="B169" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E169" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B169" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E169" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F169" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G169" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="7" t="s">
+      <c r="B170" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E170" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G170" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B170" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E170" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F170" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G170" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="7" t="s">
+      <c r="B171" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E171" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F171" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B171" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E171" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F171" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G171" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="7" t="s">
+      <c r="B172" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E172" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G172" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B172" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E172" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F172" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G172" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="7" t="s">
+      <c r="B173" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G173" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B173" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E173" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F173" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G173" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H173" s="25"/>
-    </row>
-    <row r="174" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="7" t="s">
+      <c r="B174" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G174" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H174" s="25"/>
+    </row>
+    <row r="175" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B174" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D174" s="6"/>
-      <c r="E174" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F174" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G174" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="7" t="s">
+      <c r="B175" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175" s="6"/>
+      <c r="E175" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F175" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G175" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B175" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D175" s="34"/>
-      <c r="E175" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F175" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G175" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="7" t="s">
+      <c r="B176" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176" s="34"/>
+      <c r="E176" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G176" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B176" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D176" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="7" t="s">
+      <c r="B177" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D177" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B177" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D177" s="6"/>
-      <c r="E177" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F177" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G177" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="7" t="s">
+      <c r="B178" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178" s="6"/>
+      <c r="E178" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F178" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B178" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C178" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D178" s="34"/>
-      <c r="E178" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F178" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G178" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="7" t="s">
+      <c r="B179" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" s="34"/>
+      <c r="E179" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G179" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B179" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D179" s="28"/>
-      <c r="E179" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F179" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G179" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="7" t="s">
+      <c r="B180" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" s="28"/>
+      <c r="E180" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G180" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B180" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D180" s="6"/>
-      <c r="E180" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F180" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G180" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="7" t="s">
+      <c r="B181" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D181" s="6"/>
+      <c r="E181" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F181" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G181" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B181" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D181" s="6"/>
-      <c r="E181" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F181" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G181" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="7" t="s">
+      <c r="B182" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182" s="6"/>
+      <c r="E182" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G182" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B182" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D182" s="6"/>
-      <c r="E182" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F182" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G182" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="7" t="s">
+      <c r="B183" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183" s="6"/>
+      <c r="E183" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G183" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B183" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D183" s="6"/>
-      <c r="E183" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F183" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G183" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="7" t="s">
+      <c r="B184" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D184" s="6"/>
+      <c r="E184" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G184" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B184" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D184" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E184" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F184" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G184" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="7" t="s">
+      <c r="B185" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E185" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G185" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B185" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D185" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E185" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F185" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G185" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="7" t="s">
+      <c r="B186" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G186" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B186" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F186" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G186" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H186" s="25"/>
-    </row>
-    <row r="187" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="B187" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C187" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C187" s="6"/>
       <c r="D187" s="6"/>
       <c r="E187" s="8" t="s">
         <v>4</v>
@@ -5068,13 +5031,14 @@
       <c r="F187" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G187" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G187" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H187" s="25"/>
+    </row>
+    <row r="188" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>4</v>
@@ -5093,51 +5057,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D189" s="6"/>
+      <c r="E189" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F189" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G189" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B189" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E189" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F189" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G189" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="7" t="s">
+      <c r="B190" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F190" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G190" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>4</v>
@@ -5154,28 +5120,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F192" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G192" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>4</v>
@@ -5192,9 +5158,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>4</v>
@@ -5211,16 +5177,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C195" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C195" s="6"/>
       <c r="D195" s="6"/>
       <c r="E195" s="8" t="s">
         <v>4</v>
@@ -5232,119 +5196,120 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B196"/>
-      <c r="C196" s="6"/>
-      <c r="D196" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E196"/>
-      <c r="F196"/>
-      <c r="G196"/>
-      <c r="H196" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D196" s="6"/>
+      <c r="E196" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F196" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G196" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B197" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="B197"/>
       <c r="C197" s="6"/>
-      <c r="D197" s="10"/>
-      <c r="E197" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F197" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G197" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H197" s="23" t="s">
+      <c r="D197" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197"/>
+      <c r="H197" s="23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" s="6"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G198" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H198" s="23" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B198"/>
-      <c r="C198"/>
-      <c r="D198" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E198"/>
-      <c r="F198" s="6"/>
-      <c r="G198"/>
-      <c r="H198" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B199" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D199" s="10"/>
-      <c r="E199" s="6"/>
+      <c r="B199"/>
+      <c r="C199"/>
+      <c r="D199" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E199"/>
       <c r="F199" s="6"/>
-      <c r="G199" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H199" s="23" t="s">
+      <c r="G199"/>
+      <c r="H199" s="23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D200" s="10"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H200" s="23" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B200"/>
-      <c r="C200"/>
-      <c r="D200" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="E200"/>
-      <c r="F200" s="28"/>
-      <c r="G200"/>
-      <c r="H200" s="25">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B201" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C201" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D201" s="31"/>
-      <c r="E201" s="28"/>
+      <c r="B201"/>
+      <c r="C201"/>
+      <c r="D201" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="E201"/>
       <c r="F201" s="28"/>
-      <c r="G201" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H201" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G201"/>
+      <c r="H201" s="25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B202" s="22" t="s">
         <v>4</v>
@@ -5352,18 +5317,19 @@
       <c r="C202" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D202" s="22" t="s">
-        <v>4</v>
-      </c>
+      <c r="D202" s="31"/>
       <c r="E202" s="28"/>
       <c r="F202" s="28"/>
-      <c r="G202" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G202" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H202" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B203" s="22" t="s">
         <v>4</v>
@@ -5379,51 +5345,70 @@
       <c r="G203" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H203" s="25"/>
-    </row>
-    <row r="204" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B204" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D204" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E204" s="28"/>
+      <c r="F204" s="28"/>
+      <c r="G204" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H204" s="25"/>
+    </row>
+    <row r="205" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B204" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E204" s="28"/>
-      <c r="F204" s="6"/>
-      <c r="G204" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H204" s="26"/>
-    </row>
-    <row r="205" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="7" t="s">
+      <c r="B205" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E205" s="28"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H205" s="26"/>
+    </row>
+    <row r="206" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B205" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E205" s="6"/>
-      <c r="F205" s="6"/>
-      <c r="G205" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H205" s="27"/>
-      <c r="O205" s="23"/>
+      <c r="B206" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H206" s="27"/>
+      <c r="O206" s="23"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I208">
+  <sortState ref="A5:I208">
     <sortCondition ref="A5:A208"/>
     <sortCondition ref="H5:H208"/>
   </sortState>

--- a/scope.XLSX
+++ b/scope.XLSX
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\03_Website\_TIL Website\TIL with python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\03_Website\_TIL Website\TIL with python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$1:$206</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$1:$207</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="212">
   <si>
     <t>ROOM</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>fall/winter 2021</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -1282,25 +1285,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O206"/>
+  <dimension ref="A1:O207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
+      <selection pane="bottomLeft" activeCell="G203" sqref="G203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
     <col min="3" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1327,7 @@
       </c>
       <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
@@ -1413,7 +1416,7 @@
       </c>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1481,7 +1484,7 @@
       </c>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -1505,7 +1508,7 @@
       </c>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
@@ -1527,7 +1530,7 @@
       </c>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1547,7 +1550,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1567,7 +1570,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1591,7 +1594,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -1615,7 +1618,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -1661,7 +1664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -1684,7 +1687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -1728,7 +1731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1751,7 +1754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -1774,7 +1777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>30</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>8</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>9</v>
       </c>
@@ -1888,7 +1891,7 @@
       </c>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>10</v>
       </c>
@@ -1909,7 +1912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
@@ -1951,7 +1954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
@@ -1993,7 +1996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>35</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>37</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
@@ -2082,7 +2085,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -2114,7 +2117,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
@@ -2130,7 +2133,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>39</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>40</v>
       </c>
@@ -2178,7 +2181,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>1</v>
       </c>
@@ -2202,7 +2205,7 @@
       </c>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>3</v>
       </c>
@@ -2226,7 +2229,7 @@
       </c>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>41</v>
       </c>
@@ -2242,7 +2245,7 @@
       </c>
       <c r="H45" s="23"/>
     </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>42</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>43</v>
       </c>
@@ -2273,7 +2276,7 @@
       </c>
       <c r="H47" s="25"/>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>44</v>
       </c>
@@ -2289,7 +2292,7 @@
       </c>
       <c r="H48" s="25"/>
     </row>
-    <row r="49" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>45</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>46</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>47</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>48</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>179</v>
       </c>
@@ -2378,7 +2381,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="29"/>
     </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>49</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>180</v>
       </c>
@@ -2414,7 +2417,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="29"/>
     </row>
-    <row r="56" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>50</v>
       </c>
@@ -2431,7 +2434,7 @@
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>51</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>51</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>52</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -2497,7 +2500,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>53</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>54</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>54</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>55</v>
       </c>
@@ -2567,7 +2570,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>55</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>197</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>56</v>
       </c>
@@ -2614,7 +2617,7 @@
       </c>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>57</v>
       </c>
@@ -2634,7 +2637,7 @@
       </c>
       <c r="H68" s="25"/>
     </row>
-    <row r="69" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>58</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>59</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>198</v>
       </c>
@@ -2688,7 +2691,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>60</v>
       </c>
@@ -2707,7 +2710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>204</v>
       </c>
@@ -2720,7 +2723,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>194</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>61</v>
       </c>
@@ -2758,7 +2761,7 @@
       </c>
       <c r="H75" s="27"/>
     </row>
-    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>62</v>
       </c>
@@ -2777,73 +2780,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>203</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" s="46"/>
-      <c r="E77" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F77" s="8" t="s">
+      <c r="C77"/>
+      <c r="D77" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78"/>
+      <c r="C78" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="46"/>
+      <c r="E78" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G77" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H77" s="23" t="s">
+      <c r="G78" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H78" s="23" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="7" t="s">
+    <row r="79" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="7" t="s">
+      <c r="B79" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>4</v>
@@ -2860,9 +2860,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>4</v>
@@ -2879,9 +2879,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>4</v>
@@ -2898,71 +2898,72 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="8" t="s">
+      <c r="B84" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G83" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="7" t="s">
+      <c r="G84" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="20" t="s">
+      <c r="B85" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
         <v>181</v>
-      </c>
-      <c r="B85" s="29"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="20" t="s">
-        <v>182</v>
       </c>
       <c r="B86" s="29"/>
       <c r="C86" s="6"/>
@@ -2978,221 +2979,221 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="7" t="s">
+    <row r="87" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" s="29"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="7" t="s">
+      <c r="B88" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="7" t="s">
+      <c r="B89" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="7" t="s">
+      <c r="B90" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="7" t="s">
+      <c r="B91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="7" t="s">
+      <c r="B92" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="7" t="s">
+      <c r="B93" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B93" s="29"/>
-      <c r="C93" s="6"/>
-      <c r="D93"/>
-      <c r="E93" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="23">
+      <c r="B94" s="29"/>
+      <c r="C94" s="6"/>
+      <c r="D94"/>
+      <c r="E94" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="7" t="s">
+    <row r="95" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="7" t="s">
+      <c r="B95" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95"/>
-      <c r="E95" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="23">
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96"/>
+      <c r="E96" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="7" t="s">
+    <row r="97" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="20" t="s">
+      <c r="B97" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="20" t="s">
         <v>184</v>
-      </c>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E97" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="20" t="s">
-        <v>183</v>
       </c>
       <c r="B98" s="29"/>
       <c r="C98" s="29"/>
@@ -3208,9 +3209,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="20" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
@@ -3223,31 +3224,30 @@
       <c r="F99" s="29"/>
       <c r="G99" s="29"/>
       <c r="H99" s="23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="23">
         <v>2016</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="7" t="s">
+    <row r="101" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>4</v>
@@ -3264,9 +3264,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>4</v>
@@ -3283,9 +3283,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>4</v>
@@ -3301,11 +3301,10 @@
       <c r="G103" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H103" s="23"/>
-    </row>
-    <row r="104" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>4</v>
@@ -3323,9 +3322,9 @@
       </c>
       <c r="H104" s="23"/>
     </row>
-    <row r="105" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>4</v>
@@ -3341,10 +3340,11 @@
       <c r="G105" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H105" s="23"/>
+    </row>
+    <row r="106" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>4</v>
@@ -3361,27 +3361,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="20" t="s">
+    <row r="107" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="20" t="s">
         <v>185</v>
-      </c>
-      <c r="B107" s="29"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E107" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="20" t="s">
-        <v>186</v>
       </c>
       <c r="B108" s="29"/>
       <c r="C108" s="6"/>
@@ -3393,13 +3394,13 @@
       </c>
       <c r="F108" s="29"/>
       <c r="G108" s="29"/>
-      <c r="H108" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H108" s="23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B109" s="29"/>
       <c r="C109" s="6"/>
@@ -3415,9 +3416,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B110" s="29"/>
       <c r="C110" s="6"/>
@@ -3429,33 +3430,31 @@
       </c>
       <c r="F110" s="29"/>
       <c r="G110" s="29"/>
-      <c r="H110" s="23">
+      <c r="H110" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B111" s="29"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="7" t="s">
+    <row r="112" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H111" s="23"/>
-    </row>
-    <row r="112" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>4</v>
@@ -3473,9 +3472,9 @@
       </c>
       <c r="H112" s="23"/>
     </row>
-    <row r="113" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>4</v>
@@ -3491,10 +3490,11 @@
       <c r="G113" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H113" s="23"/>
+    </row>
+    <row r="114" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>4</v>
@@ -3511,16 +3511,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="8" t="s">
         <v>4</v>
@@ -3532,9 +3530,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>4</v>
@@ -3553,121 +3551,120 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="6"/>
+      <c r="E117" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H117" s="23"/>
-    </row>
-    <row r="118" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="7" t="s">
+      <c r="B118" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H118" s="23"/>
+    </row>
+    <row r="119" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D118" s="10"/>
-      <c r="E118" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" s="8" t="s">
+      <c r="B119" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="10"/>
+      <c r="E119" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G118" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H118" s="23"/>
-    </row>
-    <row r="119" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="7" t="s">
+      <c r="G119" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H119" s="23"/>
+    </row>
+    <row r="120" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H119" s="23"/>
-    </row>
-    <row r="120" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="7" t="s">
+      <c r="B120" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H120" s="23"/>
+    </row>
+    <row r="121" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H120" s="25"/>
-    </row>
-    <row r="121" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="7" t="s">
+      <c r="B121" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H121" s="25"/>
+    </row>
+    <row r="122" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G121" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H121" s="23"/>
-    </row>
-    <row r="122" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>4</v>
@@ -3685,43 +3682,47 @@
       <c r="G122" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H122" s="23"/>
+    </row>
+    <row r="123" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B123"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="E123" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="F123" s="29"/>
-      <c r="G123" s="29"/>
-    </row>
-    <row r="124" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E124" s="21" t="s">
+      <c r="B124"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="47" t="s">
         <v>4</v>
       </c>
       <c r="F124" s="29"/>
       <c r="G124" s="29"/>
-      <c r="H124" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B125" s="29"/>
       <c r="C125" s="29"/>
@@ -3737,9 +3738,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B126" s="29"/>
       <c r="C126" s="29"/>
@@ -3755,121 +3756,116 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B127" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C127" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F127" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G127" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="7" t="s">
+      <c r="B128" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F128" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G128" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
-      <c r="H128" s="23">
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="7" t="s">
+    <row r="130" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B129" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="7" t="s">
+      <c r="B130" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="16" t="s">
+      <c r="B131" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B131" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F131" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G131" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="16" t="s">
-        <v>101</v>
-      </c>
       <c r="B132" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C132" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>4</v>
-      </c>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
       <c r="E132" s="17" t="s">
         <v>4</v>
       </c>
@@ -3880,173 +3876,175 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="7" t="s">
+    <row r="133" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G133" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F133" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G133" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="7" t="s">
+      <c r="B134" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B134" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D134" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E134" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F134" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G134" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H134" s="27"/>
-    </row>
-    <row r="135" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="7" t="s">
+      <c r="B135" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G135" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H135" s="27"/>
+    </row>
+    <row r="136" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B135" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D135" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E135" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F135" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G135" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="7" t="s">
+      <c r="B136" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G136" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B136" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F136" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G136" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="7" t="s">
+      <c r="B137" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B137" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G137" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="7" t="s">
+      <c r="B138" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B138" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F138" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G138" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="16" t="s">
+      <c r="B139" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B139" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D139" s="9"/>
-      <c r="E139" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F139" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G139" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="16" t="s">
-        <v>109</v>
-      </c>
       <c r="B140" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C140" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D140" s="13"/>
+      <c r="D140" s="9"/>
       <c r="E140" s="17" t="s">
         <v>4</v>
       </c>
@@ -4056,146 +4054,146 @@
       <c r="G140" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H140" s="27"/>
-    </row>
-    <row r="141" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="7" t="s">
+    </row>
+    <row r="141" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" s="13"/>
+      <c r="E141" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F141" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G141" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H141" s="27"/>
+    </row>
+    <row r="142" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B141" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="7" t="s">
+      <c r="B142" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B142" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E142" s="6"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="7" t="s">
+      <c r="B143" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143" s="6"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B143" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="7" t="s">
+      <c r="B144" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B144" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C144" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D144" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E144" s="28"/>
-      <c r="F144" s="28"/>
-      <c r="G144" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B145"/>
-      <c r="C145"/>
-      <c r="D145"/>
+      <c r="B145" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="E145" s="28"/>
       <c r="F145" s="28"/>
       <c r="G145" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146" s="28"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="38" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="16" t="s">
+    <row r="147" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B146" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F146" s="17" t="s">
+      <c r="B147" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G146" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="16" t="s">
+      <c r="G147" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B147" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="32"/>
-      <c r="D147" s="41"/>
-      <c r="E147" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F147" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="G147" s="39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="16" t="s">
-        <v>116</v>
-      </c>
       <c r="B148" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C148" s="32"/>
-      <c r="D148" s="36" t="s">
-        <v>4</v>
-      </c>
+      <c r="D148" s="41"/>
       <c r="E148" s="36" t="s">
         <v>4</v>
       </c>
@@ -4206,38 +4204,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B149" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="32"/>
+      <c r="D149" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F149" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G149" s="39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B149" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C149" s="13"/>
-      <c r="D149" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E149" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F149" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G149" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="16" t="s">
-        <v>118</v>
-      </c>
       <c r="B150" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C150" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D150" s="13"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="17" t="s">
+        <v>4</v>
+      </c>
       <c r="E150" s="17" t="s">
         <v>4</v>
       </c>
@@ -4248,96 +4246,98 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B151" s="10"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E151"/>
-      <c r="F151"/>
-      <c r="G151"/>
-      <c r="H151" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" s="13"/>
+      <c r="E151" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F151" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G151" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B152" s="10"/>
       <c r="C152" s="9"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="30"/>
+      <c r="D152" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E152"/>
       <c r="F152"/>
       <c r="G152"/>
       <c r="H152" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B153" s="10"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F153"/>
+      <c r="G153"/>
+      <c r="H153" s="23" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="7" t="s">
+    <row r="154" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="7" t="s">
+      <c r="B154" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B154" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F154" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G154" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="7" t="s">
+      <c r="B155" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C155" s="6"/>
-      <c r="D155" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>4</v>
@@ -4356,53 +4356,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B157" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D157" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E157" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F157" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G157" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="7" t="s">
+      <c r="B158" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F158" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G158" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="B158" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E158" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F158" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G158" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="B159" s="22" t="s">
         <v>4</v>
@@ -4421,631 +4421,630 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B160" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F160" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G160" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B160" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D160" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E160" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F160" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G160" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="7" t="s">
+      <c r="B161" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E161" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F161" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G161" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F161" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G161" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="7" t="s">
+      <c r="B162" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B162" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E162" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F162" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G162" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="7" t="s">
+      <c r="B163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F163" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G163" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="7" t="s">
+      <c r="B164" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B164" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F164" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G164" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="7" t="s">
+      <c r="B165" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G165" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B165" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E165" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F165" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G165" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="7" t="s">
+      <c r="B166" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E166" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G166" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B166" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C166" s="10"/>
-      <c r="D166" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E166" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F166" s="10"/>
-      <c r="G166"/>
-      <c r="H166" s="23">
+      <c r="B167" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" s="10"/>
+      <c r="D167" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F167" s="10"/>
+      <c r="G167"/>
+      <c r="H167" s="23">
         <v>2018</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="7" t="s">
+    <row r="168" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B167" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E167" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F167" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G167" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="7" t="s">
+      <c r="B168" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E168" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B168" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C168" s="6"/>
-      <c r="D168" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E168" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F168" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G168" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="7" t="s">
+      <c r="B169" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E169" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G169" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B169" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E169" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F169" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G169" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="7" t="s">
+      <c r="B170" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E170" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B170" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E170" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F170" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G170" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="7" t="s">
+      <c r="B171" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E171" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F171" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G171" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B171" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E171" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F171" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G171" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="7" t="s">
+      <c r="B172" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E172" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B172" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E172" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F172" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G172" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="7" t="s">
+      <c r="B173" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G173" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B173" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E173" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F173" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G173" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="7" t="s">
+      <c r="B174" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B174" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E174" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F174" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G174" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H174" s="25"/>
-    </row>
-    <row r="175" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="7" t="s">
+      <c r="B175" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E175" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F175" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G175" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H175" s="25"/>
+    </row>
+    <row r="176" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B175" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D175" s="6"/>
-      <c r="E175" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F175" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G175" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="7" t="s">
+      <c r="B176" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176" s="6"/>
+      <c r="E176" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B176" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D176" s="34"/>
-      <c r="E176" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F176" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G176" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="7" t="s">
+      <c r="B177" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D177" s="34"/>
+      <c r="E177" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F177" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G177" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B177" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D177" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="7" t="s">
+      <c r="B178" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B178" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C178" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D178" s="6"/>
-      <c r="E178" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F178" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G178" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="7" t="s">
+      <c r="B179" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" s="6"/>
+      <c r="E179" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G179" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B179" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D179" s="34"/>
-      <c r="E179" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F179" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G179" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="7" t="s">
+      <c r="B180" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" s="34"/>
+      <c r="E180" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G180" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B180" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D180" s="28"/>
-      <c r="E180" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F180" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G180" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="7" t="s">
+      <c r="B181" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D181" s="28"/>
+      <c r="E181" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F181" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G181" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B181" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D181" s="6"/>
-      <c r="E181" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F181" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G181" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="7" t="s">
+      <c r="B182" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182" s="6"/>
+      <c r="E182" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G182" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B182" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D182" s="6"/>
-      <c r="E182" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F182" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G182" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="7" t="s">
+      <c r="B183" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183" s="6"/>
+      <c r="E183" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G183" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B183" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D183" s="6"/>
-      <c r="E183" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F183" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G183" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="7" t="s">
+      <c r="B184" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D184" s="6"/>
+      <c r="E184" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G184" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B184" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D184" s="6"/>
-      <c r="E184" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F184" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G184" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="7" t="s">
+      <c r="B185" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" s="6"/>
+      <c r="E185" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G185" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B185" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D185" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E185" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F185" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G185" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="7" t="s">
+      <c r="B186" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G186" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B186" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D186" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E186" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F186" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G186" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="7" t="s">
+      <c r="B187" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E187" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F187" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G187" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B187" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F187" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G187" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H187" s="25"/>
-    </row>
-    <row r="188" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="B188" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C188" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C188" s="6"/>
       <c r="D188" s="6"/>
       <c r="E188" s="8" t="s">
         <v>4</v>
@@ -5053,13 +5052,14 @@
       <c r="F188" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G188" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G188" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H188" s="25"/>
+    </row>
+    <row r="189" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>4</v>
@@ -5078,51 +5078,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D190" s="6"/>
+      <c r="E190" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F190" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G190" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B190" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E190" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F190" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G190" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="7" t="s">
+      <c r="B191" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F191" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G191" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C191" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E191" s="6"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>4</v>
@@ -5139,28 +5141,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F193" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G193" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>4</v>
@@ -5177,9 +5179,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>4</v>
@@ -5196,16 +5198,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C196" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="E196" s="8" t="s">
         <v>4</v>
@@ -5217,138 +5217,132 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B197"/>
-      <c r="C197" s="6"/>
-      <c r="D197" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E197"/>
-      <c r="F197"/>
-      <c r="G197"/>
-      <c r="H197" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D197" s="6"/>
+      <c r="E197" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F197" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G197" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B198" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="B198"/>
       <c r="C198" s="6"/>
-      <c r="D198" s="10"/>
-      <c r="E198" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F198" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G198" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H198" s="23" t="s">
+      <c r="D198" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E198"/>
+      <c r="F198"/>
+      <c r="G198"/>
+      <c r="H198" s="23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="6"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F199" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G199" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H199" s="23" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B199"/>
-      <c r="C199"/>
-      <c r="D199" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E199"/>
-      <c r="F199" s="6"/>
-      <c r="G199"/>
-      <c r="H199" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B200" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D200" s="10"/>
-      <c r="E200" s="6"/>
+      <c r="B200"/>
+      <c r="C200"/>
+      <c r="D200" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E200"/>
       <c r="F200" s="6"/>
-      <c r="G200" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H200" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G200"/>
+      <c r="H200" s="23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B201"/>
       <c r="C201"/>
-      <c r="D201" s="40" t="s">
+      <c r="D201" s="10"/>
+      <c r="E201" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E201"/>
-      <c r="F201" s="28"/>
+      <c r="F201" s="6"/>
       <c r="G201"/>
-      <c r="H201" s="25">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H201" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B202" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C202" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D202" s="31"/>
-      <c r="E202" s="28"/>
+      <c r="B202"/>
+      <c r="C202"/>
+      <c r="D202" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="E202"/>
       <c r="F202" s="28"/>
-      <c r="G202" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H202" s="23" t="s">
+      <c r="G202"/>
+      <c r="H202" s="25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B203"/>
+      <c r="C203"/>
+      <c r="D203" s="31"/>
+      <c r="E203" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F203" s="28"/>
+      <c r="G203"/>
+      <c r="H203" s="23" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="7" t="s">
+    <row r="204" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="B203" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C203" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D203" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E203" s="28"/>
-      <c r="F203" s="28"/>
-      <c r="G203" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="B204" s="22" t="s">
         <v>4</v>
@@ -5364,48 +5358,67 @@
       <c r="G204" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H204" s="25"/>
-    </row>
-    <row r="205" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B205" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D205" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E205" s="28"/>
+      <c r="F205" s="28"/>
+      <c r="G205" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H205" s="25"/>
+    </row>
+    <row r="206" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B205" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E205" s="28"/>
-      <c r="F205" s="6"/>
-      <c r="G205" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H205" s="26"/>
-    </row>
-    <row r="206" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="7" t="s">
+      <c r="B206" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E206" s="28"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H206" s="26"/>
+    </row>
+    <row r="207" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B206" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E206" s="6"/>
-      <c r="F206" s="6"/>
-      <c r="G206" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H206" s="27"/>
-      <c r="O206" s="23"/>
+      <c r="B207" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H207" s="27"/>
+      <c r="O207" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A5:I208">
